--- a/Predictions/Production-Prediction.xlsx
+++ b/Predictions/Production-Prediction.xlsx
@@ -5,30 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c9508ab44972434/Documents/GitHub/AI-Carbon-Predictor/Predictions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegan\Documents\GitHub\AI-Build-Carbon-Predictor\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{ADDA2C21-2A63-4BB0-AAF4-E27EEFDC7B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB1646D-3854-47FB-8EB6-7F38C8AC41D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243FEC8B-AADB-4942-8718-340ADF944473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production-Prediction" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1353,7 +1340,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1432,7 +1419,7 @@
                         <c:v>5552.2346999992151</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-35050.556999999972</c:v>
+                        <c:v>35050.556999999972</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>3230.3596999992733</c:v>
@@ -1444,7 +1431,7 @@
                         <c:v>53101.949999999983</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-63029.074999999953</c:v>
+                        <c:v>63029.074999999953</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3232,35 +3219,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="I43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="26.7265625" customWidth="1"/>
-    <col min="13" max="13" width="26.54296875" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="18.08984375" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" customWidth="1"/>
-    <col min="19" max="19" width="20.36328125" customWidth="1"/>
-    <col min="20" max="20" width="15.26953125" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +3303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>5500</v>
       </c>
@@ -3384,7 +3371,7 @@
         <v>359431.57499999995</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>4950</v>
       </c>
@@ -3417,39 +3404,39 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="6">
-        <f>M3-N3</f>
+        <f>ABS(N3-M3)</f>
         <v>6442.3923440996441</v>
       </c>
       <c r="O4">
-        <f>M3-O3</f>
+        <f>ABS(O3-M3)</f>
         <v>14831.5</v>
       </c>
       <c r="P4">
-        <f>M3-P3</f>
+        <f>ABS(P3-M3)</f>
         <v>5552.2346999992151</v>
       </c>
       <c r="Q4">
-        <f>M3-Q3</f>
-        <v>-35050.556999999972</v>
+        <f>ABS(Q3-M3)</f>
+        <v>35050.556999999972</v>
       </c>
       <c r="R4">
-        <f>R3-M3</f>
+        <f>ABS(M3-R3)</f>
         <v>3230.3596999992733</v>
       </c>
       <c r="S4">
-        <f>M3-S3</f>
+        <f>ABS(S3-M3)</f>
         <v>200.0057299999753</v>
       </c>
       <c r="T4">
-        <f>M3-T3</f>
+        <f>ABS(T3-M3)</f>
         <v>53101.949999999983</v>
       </c>
       <c r="U4">
-        <f>M3-U3</f>
-        <v>-63029.074999999953</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f>ABS(U3-M3)</f>
+        <v>63029.074999999953</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>4400</v>
       </c>
@@ -3514,7 +3501,7 @@
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:21" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3850</v>
       </c>
@@ -3547,19 +3534,19 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6">
-        <f>ROUND(((M3-N3)/M3)*100,2)</f>
+        <f>ROUND(((N4)/M3)*100,2)</f>
         <v>2.17</v>
       </c>
       <c r="O6">
-        <f>ROUND(((M3-O3)/M3)*100,2)</f>
+        <f>ROUND(((O4)/M3)*100,2)</f>
         <v>5</v>
       </c>
       <c r="P6">
-        <f>ROUND(((M3-P3)/M3)*100,2)</f>
+        <f>ROUND(((P4)/M3)*100,2)</f>
         <v>1.87</v>
       </c>
       <c r="Q6">
-        <f>ROUND(((ABS(Q4)/M3)*100),2)</f>
+        <f>ROUND(((Q4/M3)*100),2)</f>
         <v>11.83</v>
       </c>
       <c r="R6">
@@ -3575,11 +3562,11 @@
         <v>17.920000000000002</v>
       </c>
       <c r="U6">
-        <f>ROUND(((ABS(U4)/M3)*100),2)</f>
+        <f>ROUND(((U4/M3)*100),2)</f>
         <v>21.26</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3300</v>
       </c>
@@ -3608,7 +3595,7 @@
         <v>348.30599999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3000</v>
       </c>
@@ -3637,7 +3624,7 @@
         <v>368.16199999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>3000</v>
       </c>
@@ -3666,7 +3653,7 @@
         <v>345.99200000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2750</v>
       </c>
@@ -3695,7 +3682,7 @@
         <v>370.55900000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2700</v>
       </c>
@@ -3724,7 +3711,7 @@
         <v>373.16800000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2700</v>
       </c>
@@ -3753,7 +3740,7 @@
         <v>345.97500000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2400</v>
       </c>
@@ -3782,7 +3769,7 @@
         <v>323.39499999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>2400</v>
       </c>
@@ -3811,7 +3798,7 @@
         <v>384.22199999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2250</v>
       </c>
@@ -3840,7 +3827,7 @@
         <v>345.29300000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2200</v>
       </c>
@@ -3872,7 +3859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>2100</v>
       </c>
@@ -3901,7 +3888,7 @@
         <v>358.84100000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2100</v>
       </c>
@@ -3930,7 +3917,7 @@
         <v>345.29300000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>2100</v>
       </c>
@@ -3959,7 +3946,7 @@
         <v>381.536</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>1950</v>
       </c>
@@ -3988,7 +3975,7 @@
         <v>369.90800000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1800</v>
       </c>
@@ -4017,7 +4004,7 @@
         <v>359.71300000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>1800</v>
       </c>
@@ -4046,7 +4033,7 @@
         <v>368.38600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>1800</v>
       </c>
@@ -4075,7 +4062,7 @@
         <v>383.10500000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>1800</v>
       </c>
@@ -4104,7 +4091,7 @@
         <v>385.26400000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>1650</v>
       </c>
@@ -4133,7 +4120,7 @@
         <v>359.97</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>1650</v>
       </c>
@@ -4162,7 +4149,7 @@
         <v>323.32</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>1620</v>
       </c>
@@ -4191,7 +4178,7 @@
         <v>367.51499999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>1500</v>
       </c>
@@ -4220,7 +4207,7 @@
         <v>369.714</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>1500</v>
       </c>
@@ -4249,7 +4236,7 @@
         <v>362.02499999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>1500</v>
       </c>
@@ -4278,7 +4265,7 @@
         <v>361.67399999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>1500</v>
       </c>
@@ -4307,7 +4294,7 @@
         <v>344.101</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>1500</v>
       </c>
@@ -4336,7 +4323,7 @@
         <v>318.322</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>1500</v>
       </c>
@@ -4365,7 +4352,7 @@
         <v>368.39</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>1440</v>
       </c>
@@ -4394,7 +4381,7 @@
         <v>365.904</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>1350</v>
       </c>
@@ -4423,7 +4410,7 @@
         <v>355.39499999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>1350</v>
       </c>
@@ -4452,7 +4439,7 @@
         <v>368.31400000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>1350</v>
       </c>
@@ -4481,7 +4468,7 @@
         <v>345.29199999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>1350</v>
       </c>
@@ -4510,7 +4497,7 @@
         <v>379.99099999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>1260</v>
       </c>
@@ -4539,7 +4526,7 @@
         <v>320.57499999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>1200</v>
       </c>
@@ -4568,7 +4555,7 @@
         <v>361.721</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>1200</v>
       </c>
@@ -4597,7 +4584,7 @@
         <v>367.779</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>1200</v>
       </c>
@@ -4626,7 +4613,7 @@
         <v>368.09899999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>1200</v>
       </c>
@@ -4655,7 +4642,7 @@
         <v>364.47399999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>1200</v>
       </c>
@@ -4684,7 +4671,7 @@
         <v>342.726</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>1200</v>
       </c>
@@ -4713,7 +4700,7 @@
         <v>319.28699999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>1200</v>
       </c>
@@ -4742,7 +4729,7 @@
         <v>318.786</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>1200</v>
       </c>
@@ -4771,7 +4758,7 @@
         <v>381.43900000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>1100</v>
       </c>
@@ -4800,7 +4787,7 @@
         <v>364.15600000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>1100</v>
       </c>
@@ -4829,7 +4816,7 @@
         <v>384.78</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>1080</v>
       </c>
@@ -4858,7 +4845,7 @@
         <v>357.14100000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>1080</v>
       </c>
@@ -4887,7 +4874,7 @@
         <v>354.48899999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>1080</v>
       </c>
@@ -4916,7 +4903,7 @@
         <v>318.59199999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>1050</v>
       </c>
@@ -4945,7 +4932,7 @@
         <v>375.29</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>1050</v>
       </c>
@@ -4974,7 +4961,7 @@
         <v>318.99099999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>1050</v>
       </c>
@@ -5003,7 +4990,7 @@
         <v>318.32</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>1050</v>
       </c>
@@ -5032,7 +5019,7 @@
         <v>365.90899999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>990</v>
       </c>
@@ -5061,7 +5048,7 @@
         <v>366.654</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>960</v>
       </c>
@@ -5090,7 +5077,7 @@
         <v>342.21300000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>960</v>
       </c>
@@ -5119,7 +5106,7 @@
         <v>378.46199999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>900</v>
       </c>
@@ -5148,7 +5135,7 @@
         <v>359.89400000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>900</v>
       </c>
@@ -5177,7 +5164,7 @@
         <v>357.30599999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>900</v>
       </c>
@@ -5206,7 +5193,7 @@
         <v>361.65100000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>900</v>
       </c>
@@ -5235,7 +5222,7 @@
         <v>365.35599999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>900</v>
       </c>
@@ -5264,7 +5251,7 @@
         <v>343.08699999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>900</v>
       </c>
@@ -5293,7 +5280,7 @@
         <v>345.291</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>900</v>
       </c>
@@ -5322,7 +5309,7 @@
         <v>318.32</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>900</v>
       </c>
@@ -5351,7 +5338,7 @@
         <v>377.80799999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>900</v>
       </c>
@@ -5380,7 +5367,7 @@
         <v>380.60700000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>880</v>
       </c>
@@ -5409,7 +5396,7 @@
         <v>366.65199999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>840</v>
       </c>
@@ -5438,7 +5425,7 @@
         <v>318.59199999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>840</v>
       </c>
@@ -5467,7 +5454,7 @@
         <v>364.04</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>825</v>
       </c>
@@ -5496,7 +5483,7 @@
         <v>378.75200000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>810</v>
       </c>
@@ -5525,7 +5512,7 @@
         <v>364.51900000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>810</v>
       </c>
@@ -5554,7 +5541,7 @@
         <v>318.04500000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>770</v>
       </c>
@@ -5583,7 +5570,7 @@
         <v>378.96300000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>750</v>
       </c>
@@ -5612,7 +5599,7 @@
         <v>356.85300000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>750</v>
       </c>
@@ -5641,7 +5628,7 @@
         <v>357.78500000000003</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>750</v>
       </c>
@@ -5670,7 +5657,7 @@
         <v>361.72</v>
       </c>
     </row>
-    <row r="79" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>750</v>
       </c>
@@ -5699,7 +5686,7 @@
         <v>365.31</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>750</v>
       </c>
@@ -5728,7 +5715,7 @@
         <v>364.61200000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>742.5</v>
       </c>
@@ -5757,7 +5744,7 @@
         <v>364.15</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>720</v>
       </c>
@@ -5786,7 +5773,7 @@
         <v>371.36599999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>720</v>
       </c>
@@ -5815,7 +5802,7 @@
         <v>368.85700000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>720</v>
       </c>
@@ -5844,7 +5831,7 @@
         <v>357.274</v>
       </c>
     </row>
-    <row r="85" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>720</v>
       </c>
@@ -5873,7 +5860,7 @@
         <v>366.50700000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>720</v>
       </c>
@@ -5902,7 +5889,7 @@
         <v>379.678</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>700</v>
       </c>
@@ -5931,7 +5918,7 @@
         <v>378.92399999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>675</v>
       </c>
@@ -5960,7 +5947,7 @@
         <v>368.85300000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>675</v>
       </c>
@@ -5989,7 +5976,7 @@
         <v>318.44099999999997</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>660</v>
       </c>
@@ -6018,7 +6005,7 @@
         <v>354.51600000000002</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>660</v>
       </c>
@@ -6047,7 +6034,7 @@
         <v>378.96100000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>630</v>
       </c>
@@ -6076,7 +6063,7 @@
         <v>366.60199999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>630</v>
       </c>
@@ -6105,7 +6092,7 @@
         <v>378.92200000000003</v>
       </c>
     </row>
-    <row r="94" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>630</v>
       </c>
@@ -6134,7 +6121,7 @@
         <v>378.92099999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>607.5</v>
       </c>
@@ -6163,7 +6150,7 @@
         <v>377.791</v>
       </c>
     </row>
-    <row r="96" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>600</v>
       </c>
@@ -6192,7 +6179,7 @@
         <v>362.02300000000002</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>600</v>
       </c>
@@ -6221,7 +6208,7 @@
         <v>361.63900000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>600</v>
       </c>
@@ -6250,7 +6237,7 @@
         <v>357.42700000000002</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>600</v>
       </c>
@@ -6279,7 +6266,7 @@
         <v>366.50200000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>600</v>
       </c>
@@ -6308,7 +6295,7 @@
         <v>342.31200000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>600</v>
       </c>
@@ -6337,7 +6324,7 @@
         <v>344.78300000000002</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>600</v>
       </c>
@@ -6366,7 +6353,7 @@
         <v>323.23099999999999</v>
       </c>
     </row>
-    <row r="103" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>600</v>
       </c>
@@ -6395,7 +6382,7 @@
         <v>377.81200000000001</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>600</v>
       </c>
@@ -6424,7 +6411,7 @@
         <v>377.84399999999999</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>600</v>
       </c>
@@ -6453,7 +6440,7 @@
         <v>377.84399999999999</v>
       </c>
     </row>
-    <row r="106" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>600</v>
       </c>
@@ -6482,7 +6469,7 @@
         <v>364.97500000000002</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>600</v>
       </c>
@@ -6511,7 +6498,7 @@
         <v>368.18099999999998</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>600</v>
       </c>
@@ -6540,7 +6527,7 @@
         <v>381.34199999999998</v>
       </c>
     </row>
-    <row r="109" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>577.5</v>
       </c>
@@ -6569,7 +6556,7 @@
         <v>366.488</v>
       </c>
     </row>
-    <row r="110" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>560</v>
       </c>
@@ -6598,7 +6585,7 @@
         <v>364.50700000000001</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>550</v>
       </c>
@@ -6627,7 +6614,7 @@
         <v>376.01100000000002</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>550</v>
       </c>
@@ -6656,7 +6643,7 @@
         <v>366.64800000000002</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>550</v>
       </c>
@@ -6685,7 +6672,7 @@
         <v>317.928</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>540</v>
       </c>
@@ -6714,7 +6701,7 @@
         <v>368.85899999999998</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>540</v>
       </c>
@@ -6743,7 +6730,7 @@
         <v>368.84699999999998</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>540</v>
       </c>
@@ -6772,7 +6759,7 @@
         <v>357.24200000000002</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>540</v>
       </c>
@@ -6801,7 +6788,7 @@
         <v>364.51299999999998</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>540</v>
       </c>
@@ -6830,7 +6817,7 @@
         <v>364.50599999999997</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>540</v>
       </c>
@@ -6859,7 +6846,7 @@
         <v>346.49</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>540</v>
       </c>
@@ -6888,7 +6875,7 @@
         <v>317.87</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>540</v>
       </c>
@@ -6917,7 +6904,7 @@
         <v>378.80599999999998</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <v>525</v>
       </c>
@@ -6946,7 +6933,7 @@
         <v>368.84399999999999</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
         <v>525</v>
       </c>
@@ -6975,7 +6962,7 @@
         <v>354.45299999999997</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <v>525</v>
       </c>
@@ -7004,7 +6991,7 @@
         <v>354.971</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <v>500</v>
       </c>
@@ -7033,7 +7020,7 @@
         <v>369.95699999999999</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <v>500</v>
       </c>
@@ -7062,7 +7049,7 @@
         <v>368.84699999999998</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
         <v>500</v>
       </c>
@@ -7091,7 +7078,7 @@
         <v>354.55399999999997</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <v>500</v>
       </c>
@@ -7120,7 +7107,7 @@
         <v>354.55399999999997</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <v>500</v>
       </c>
@@ -7149,7 +7136,7 @@
         <v>357.09199999999998</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <v>500</v>
       </c>
@@ -7178,7 +7165,7 @@
         <v>357.03899999999999</v>
       </c>
     </row>
-    <row r="131" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>500</v>
       </c>
@@ -7207,7 +7194,7 @@
         <v>378.69799999999998</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <v>500</v>
       </c>
@@ -7236,7 +7223,7 @@
         <v>364.01900000000001</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>500</v>
       </c>
@@ -7265,7 +7252,7 @@
         <v>378.69200000000001</v>
       </c>
     </row>
-    <row r="134" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>500</v>
       </c>
@@ -7294,7 +7281,7 @@
         <v>378.69200000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <v>495</v>
       </c>
@@ -7323,7 +7310,7 @@
         <v>356.95</v>
       </c>
     </row>
-    <row r="136" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <v>495</v>
       </c>
@@ -7352,7 +7339,7 @@
         <v>364.02199999999999</v>
       </c>
     </row>
-    <row r="137" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>490</v>
       </c>
@@ -7381,7 +7368,7 @@
         <v>364.50299999999999</v>
       </c>
     </row>
-    <row r="138" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>480</v>
       </c>
@@ -7410,7 +7397,7 @@
         <v>366.43599999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>480</v>
       </c>
@@ -7439,7 +7426,7 @@
         <v>364.447</v>
       </c>
     </row>
-    <row r="140" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>480</v>
       </c>
@@ -7468,7 +7455,7 @@
         <v>342.30900000000003</v>
       </c>
     </row>
-    <row r="141" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>480</v>
       </c>
@@ -7497,7 +7484,7 @@
         <v>318.73500000000001</v>
       </c>
     </row>
-    <row r="142" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>480</v>
       </c>
@@ -7526,7 +7513,7 @@
         <v>364.09</v>
       </c>
     </row>
-    <row r="143" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <v>480</v>
       </c>
@@ -7555,7 +7542,7 @@
         <v>364.97500000000002</v>
       </c>
     </row>
-    <row r="144" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <v>472.5</v>
       </c>
@@ -7584,7 +7571,7 @@
         <v>368.84300000000002</v>
       </c>
     </row>
-    <row r="145" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <v>472.5</v>
       </c>
@@ -7613,7 +7600,7 @@
         <v>366.48899999999998</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>472.5</v>
       </c>
@@ -7642,7 +7629,7 @@
         <v>364.00900000000001</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <v>450</v>
       </c>
@@ -7671,7 +7658,7 @@
         <v>368.84399999999999</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
         <v>450</v>
       </c>
@@ -7700,7 +7687,7 @@
         <v>354.55900000000003</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <v>450</v>
       </c>
@@ -7729,7 +7716,7 @@
         <v>362.02300000000002</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="2">
         <v>450</v>
       </c>
@@ -7758,7 +7745,7 @@
         <v>356.90600000000001</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
         <v>450</v>
       </c>
@@ -7787,7 +7774,7 @@
         <v>356.90199999999999</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>450</v>
       </c>
@@ -7816,7 +7803,7 @@
         <v>366.43599999999998</v>
       </c>
     </row>
-    <row r="153" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="2">
         <v>450</v>
       </c>
@@ -7845,7 +7832,7 @@
         <v>366.49200000000002</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
         <v>450</v>
       </c>
@@ -7874,7 +7861,7 @@
         <v>366.96100000000001</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
         <v>450</v>
       </c>
@@ -7903,7 +7890,7 @@
         <v>364.76100000000002</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="2">
         <v>450</v>
       </c>
@@ -7932,7 +7919,7 @@
         <v>342.19</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <v>450</v>
       </c>
@@ -7961,7 +7948,7 @@
         <v>342.245</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
         <v>450</v>
       </c>
@@ -7990,7 +7977,7 @@
         <v>342.245</v>
       </c>
     </row>
-    <row r="159" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <v>450</v>
       </c>
@@ -8019,7 +8006,7 @@
         <v>318.04899999999998</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>450</v>
       </c>
@@ -8048,7 +8035,7 @@
         <v>380.36</v>
       </c>
     </row>
-    <row r="161" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <v>450</v>
       </c>
@@ -8077,7 +8064,7 @@
         <v>377.78399999999999</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="2">
         <v>450</v>
       </c>
@@ -8106,7 +8093,7 @@
         <v>364.06</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="2">
         <v>450</v>
       </c>
@@ -8135,7 +8122,7 @@
         <v>365.02699999999999</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="2">
         <v>450</v>
       </c>
@@ -8164,7 +8151,7 @@
         <v>364.98500000000001</v>
       </c>
     </row>
-    <row r="165" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <v>450</v>
       </c>
@@ -8193,7 +8180,7 @@
         <v>368.18099999999998</v>
       </c>
     </row>
-    <row r="166" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <v>440</v>
       </c>
@@ -8222,7 +8209,7 @@
         <v>366.64600000000002</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
         <v>440</v>
       </c>
@@ -8251,7 +8238,7 @@
         <v>364.58</v>
       </c>
     </row>
-    <row r="168" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="2">
         <v>420</v>
       </c>
@@ -8280,7 +8267,7 @@
         <v>354.55799999999999</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
         <v>420</v>
       </c>
@@ -8309,7 +8296,7 @@
         <v>366.48500000000001</v>
       </c>
     </row>
-    <row r="170" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <v>420</v>
       </c>
@@ -8338,7 +8325,7 @@
         <v>364.51</v>
       </c>
     </row>
-    <row r="171" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="2">
         <v>420</v>
       </c>
@@ -8367,7 +8354,7 @@
         <v>342.24200000000002</v>
       </c>
     </row>
-    <row r="172" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="2">
         <v>420</v>
       </c>
@@ -8396,7 +8383,7 @@
         <v>364.084</v>
       </c>
     </row>
-    <row r="173" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
         <v>420</v>
       </c>
@@ -8425,7 +8412,7 @@
         <v>364.00599999999997</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="2">
         <v>420</v>
       </c>
@@ -8454,7 +8441,7 @@
         <v>378.68099999999998</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
         <v>412.5</v>
       </c>
@@ -8483,7 +8470,7 @@
         <v>364.48500000000001</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
         <v>405</v>
       </c>
@@ -8512,7 +8499,7 @@
         <v>354.54300000000001</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
         <v>405</v>
       </c>
@@ -8541,7 +8528,7 @@
         <v>364.58199999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="2">
         <v>405</v>
       </c>
@@ -8570,7 +8557,7 @@
         <v>378.685</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="2">
         <v>400</v>
       </c>
@@ -8599,7 +8586,7 @@
         <v>368.90499999999997</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="2">
         <v>400</v>
       </c>
@@ -8628,7 +8615,7 @@
         <v>368.94299999999998</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
         <v>400</v>
       </c>
@@ -8657,7 +8644,7 @@
         <v>368.947</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="2">
         <v>400</v>
       </c>
@@ -8686,7 +8673,7 @@
         <v>355.517</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="2">
         <v>400</v>
       </c>
@@ -8715,7 +8702,7 @@
         <v>354.447</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="2">
         <v>400</v>
       </c>
@@ -8744,7 +8731,7 @@
         <v>354.59399999999999</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="2">
         <v>400</v>
       </c>
@@ -8773,7 +8760,7 @@
         <v>357.036</v>
       </c>
     </row>
-    <row r="186" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="2">
         <v>400</v>
       </c>
@@ -8802,7 +8789,7 @@
         <v>356.899</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="2">
         <v>400</v>
       </c>
@@ -8831,7 +8818,7 @@
         <v>356.90300000000002</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="2">
         <v>400</v>
       </c>
@@ -8860,7 +8847,7 @@
         <v>342.18799999999999</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="2">
         <v>400</v>
       </c>
@@ -8889,7 +8876,7 @@
         <v>318.65199999999999</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="2">
         <v>400</v>
       </c>
@@ -8918,7 +8905,7 @@
         <v>317.86099999999999</v>
       </c>
     </row>
-    <row r="191" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="2">
         <v>400</v>
       </c>
@@ -8947,7 +8934,7 @@
         <v>317.86500000000001</v>
       </c>
     </row>
-    <row r="192" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="2">
         <v>400</v>
       </c>
@@ -8976,7 +8963,7 @@
         <v>377.78199999999998</v>
       </c>
     </row>
-    <row r="193" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="2">
         <v>400</v>
       </c>
@@ -9005,7 +8992,7 @@
         <v>377.78199999999998</v>
       </c>
     </row>
-    <row r="194" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="2">
         <v>400</v>
       </c>
@@ -9034,7 +9021,7 @@
         <v>364.19900000000001</v>
       </c>
     </row>
-    <row r="195" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="2">
         <v>400</v>
       </c>
@@ -9063,7 +9050,7 @@
         <v>364.01400000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="2">
         <v>400</v>
       </c>
@@ -9092,7 +9079,7 @@
         <v>378.96499999999997</v>
       </c>
     </row>
-    <row r="197" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="2">
         <v>400</v>
       </c>
@@ -9121,7 +9108,7 @@
         <v>378.68799999999999</v>
       </c>
     </row>
-    <row r="198" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="2">
         <v>385</v>
       </c>
@@ -9150,7 +9137,7 @@
         <v>364.57900000000001</v>
       </c>
     </row>
-    <row r="199" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="2">
         <v>375</v>
       </c>
@@ -9179,7 +9166,7 @@
         <v>369.02699999999999</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200" s="2">
         <v>375</v>
       </c>
@@ -9208,7 +9195,7 @@
         <v>354.44299999999998</v>
       </c>
     </row>
-    <row r="201" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201" s="2">
         <v>367.5</v>
       </c>
@@ -9237,7 +9224,7 @@
         <v>356.89600000000002</v>
       </c>
     </row>
-    <row r="202" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B202" s="2">
         <v>367.5</v>
       </c>
@@ -9266,7 +9253,7 @@
         <v>378.90699999999998</v>
       </c>
     </row>
-    <row r="203" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203" s="2">
         <v>360</v>
       </c>
@@ -9295,7 +9282,7 @@
         <v>368.74099999999999</v>
       </c>
     </row>
-    <row r="204" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B204" s="2">
         <v>360</v>
       </c>
@@ -9324,7 +9311,7 @@
         <v>369.697</v>
       </c>
     </row>
-    <row r="205" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205" s="2">
         <v>360</v>
       </c>
@@ -9353,7 +9340,7 @@
         <v>354.54300000000001</v>
       </c>
     </row>
-    <row r="206" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="2">
         <v>360</v>
       </c>
@@ -9382,7 +9369,7 @@
         <v>354.54300000000001</v>
       </c>
     </row>
-    <row r="207" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" s="2">
         <v>360</v>
       </c>
@@ -9411,7 +9398,7 @@
         <v>354.53899999999999</v>
       </c>
     </row>
-    <row r="208" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B208" s="2">
         <v>360</v>
       </c>
@@ -9440,7 +9427,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="209" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209" s="2">
         <v>360</v>
       </c>
@@ -9469,7 +9456,7 @@
         <v>357.03</v>
       </c>
     </row>
-    <row r="210" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210" s="2">
         <v>360</v>
       </c>
@@ -9498,7 +9485,7 @@
         <v>366.54399999999998</v>
       </c>
     </row>
-    <row r="211" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="2">
         <v>360</v>
       </c>
@@ -9527,7 +9514,7 @@
         <v>364.58100000000002</v>
       </c>
     </row>
-    <row r="212" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" s="2">
         <v>360</v>
       </c>
@@ -9556,7 +9543,7 @@
         <v>364.495</v>
       </c>
     </row>
-    <row r="213" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B213" s="2">
         <v>360</v>
       </c>
@@ -9585,7 +9572,7 @@
         <v>342.30500000000001</v>
       </c>
     </row>
-    <row r="214" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B214" s="2">
         <v>360</v>
       </c>
@@ -9614,7 +9601,7 @@
         <v>342.30700000000002</v>
       </c>
     </row>
-    <row r="215" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215" s="2">
         <v>360</v>
       </c>
@@ -9643,7 +9630,7 @@
         <v>318.03899999999999</v>
       </c>
     </row>
-    <row r="216" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B216" s="2">
         <v>360</v>
       </c>
@@ -9672,7 +9659,7 @@
         <v>377.78199999999998</v>
       </c>
     </row>
-    <row r="217" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B217" s="2">
         <v>360</v>
       </c>
@@ -9701,7 +9688,7 @@
         <v>377.834</v>
       </c>
     </row>
-    <row r="218" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B218" s="2">
         <v>360</v>
       </c>
@@ -9730,7 +9717,7 @@
         <v>364.22199999999998</v>
       </c>
     </row>
-    <row r="219" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B219" s="2">
         <v>360</v>
       </c>
@@ -9759,7 +9746,7 @@
         <v>364.18099999999998</v>
       </c>
     </row>
-    <row r="220" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B220" s="2">
         <v>360</v>
       </c>
@@ -9788,7 +9775,7 @@
         <v>382.31</v>
       </c>
     </row>
-    <row r="221" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B221" s="2">
         <v>360</v>
       </c>
@@ -9817,7 +9804,7 @@
         <v>378.73399999999998</v>
       </c>
     </row>
-    <row r="222" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B222" s="2">
         <v>360</v>
       </c>
@@ -9846,7 +9833,7 @@
         <v>378.91</v>
       </c>
     </row>
-    <row r="223" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B223" s="2">
         <v>360</v>
       </c>
@@ -9875,7 +9862,7 @@
         <v>378.8</v>
       </c>
     </row>
-    <row r="224" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B224" s="2">
         <v>350</v>
       </c>
@@ -9904,7 +9891,7 @@
         <v>369.71</v>
       </c>
     </row>
-    <row r="225" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B225" s="2">
         <v>350</v>
       </c>
@@ -9933,7 +9920,7 @@
         <v>369.072</v>
       </c>
     </row>
-    <row r="226" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B226" s="2">
         <v>350</v>
       </c>
@@ -9962,7 +9949,7 @@
         <v>368.94499999999999</v>
       </c>
     </row>
-    <row r="227" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B227" s="2">
         <v>350</v>
       </c>
@@ -9991,7 +9978,7 @@
         <v>354.45100000000002</v>
       </c>
     </row>
-    <row r="228" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B228" s="2">
         <v>350</v>
       </c>
@@ -10020,7 +10007,7 @@
         <v>356.90100000000001</v>
       </c>
     </row>
-    <row r="229" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B229" s="2">
         <v>350</v>
       </c>
@@ -10049,7 +10036,7 @@
         <v>356.97500000000002</v>
       </c>
     </row>
-    <row r="230" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B230" s="2">
         <v>350</v>
       </c>
@@ -10078,7 +10065,7 @@
         <v>364.43599999999998</v>
       </c>
     </row>
-    <row r="231" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B231" s="2">
         <v>350</v>
       </c>
@@ -10107,7 +10094,7 @@
         <v>342.30399999999997</v>
       </c>
     </row>
-    <row r="232" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B232" s="2">
         <v>350</v>
       </c>
@@ -10136,7 +10123,7 @@
         <v>342.90199999999999</v>
       </c>
     </row>
-    <row r="233" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B233" s="2">
         <v>350</v>
       </c>
@@ -10165,7 +10152,7 @@
         <v>317.93</v>
       </c>
     </row>
-    <row r="234" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B234" s="2">
         <v>350</v>
       </c>
@@ -10194,7 +10181,7 @@
         <v>317.87700000000001</v>
       </c>
     </row>
-    <row r="235" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B235" s="2">
         <v>350</v>
       </c>
@@ -10223,7 +10210,7 @@
         <v>318.12299999999999</v>
       </c>
     </row>
-    <row r="236" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B236" s="2">
         <v>350</v>
       </c>
@@ -10252,7 +10239,7 @@
         <v>377.83</v>
       </c>
     </row>
-    <row r="237" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B237" s="2">
         <v>350</v>
       </c>
@@ -10281,7 +10268,7 @@
         <v>364.08600000000001</v>
       </c>
     </row>
-    <row r="238" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B238" s="2">
         <v>350</v>
       </c>
@@ -10310,7 +10297,7 @@
         <v>378.90699999999998</v>
       </c>
     </row>
-    <row r="239" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B239" s="2">
         <v>337.5</v>
       </c>
@@ -10339,7 +10326,7 @@
         <v>342.23899999999998</v>
       </c>
     </row>
-    <row r="240" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B240" s="2">
         <v>337.5</v>
       </c>
@@ -10368,7 +10355,7 @@
         <v>317.91199999999998</v>
       </c>
     </row>
-    <row r="241" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B241" s="2">
         <v>330</v>
       </c>
@@ -10397,7 +10384,7 @@
         <v>342.21499999999997</v>
       </c>
     </row>
-    <row r="242" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B242" s="2">
         <v>330</v>
       </c>
@@ -10426,7 +10413,7 @@
         <v>377.83199999999999</v>
       </c>
     </row>
-    <row r="243" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B243" s="2">
         <v>330</v>
       </c>
@@ -10455,7 +10442,7 @@
         <v>364.142</v>
       </c>
     </row>
-    <row r="244" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B244" s="2">
         <v>325</v>
       </c>
@@ -10484,7 +10471,7 @@
         <v>368.84899999999999</v>
       </c>
     </row>
-    <row r="245" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B245" s="2">
         <v>324</v>
       </c>
@@ -10513,7 +10500,7 @@
         <v>342.363</v>
       </c>
     </row>
-    <row r="246" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B246" s="2">
         <v>320</v>
       </c>
@@ -10542,7 +10529,7 @@
         <v>357.03899999999999</v>
       </c>
     </row>
-    <row r="247" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B247" s="2">
         <v>320</v>
       </c>
@@ -10571,7 +10558,7 @@
         <v>357.029</v>
       </c>
     </row>
-    <row r="248" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B248" s="2">
         <v>320</v>
       </c>
@@ -10600,7 +10587,7 @@
         <v>364.49599999999998</v>
       </c>
     </row>
-    <row r="249" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B249" s="2">
         <v>320</v>
       </c>
@@ -10629,7 +10616,7 @@
         <v>364.42899999999997</v>
       </c>
     </row>
-    <row r="250" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B250" s="2">
         <v>320</v>
       </c>
@@ -10658,7 +10645,7 @@
         <v>342.28399999999999</v>
       </c>
     </row>
-    <row r="251" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B251" s="2">
         <v>320</v>
       </c>
@@ -10687,7 +10674,7 @@
         <v>317.85700000000003</v>
       </c>
     </row>
-    <row r="252" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B252" s="2">
         <v>320</v>
       </c>
@@ -10716,7 +10703,7 @@
         <v>377.774</v>
       </c>
     </row>
-    <row r="253" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B253" s="2">
         <v>320</v>
       </c>
@@ -10745,7 +10732,7 @@
         <v>378.78100000000001</v>
       </c>
     </row>
-    <row r="254" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B254" s="2">
         <v>320</v>
       </c>
@@ -10774,7 +10761,7 @@
         <v>378.90600000000001</v>
       </c>
     </row>
-    <row r="255" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B255" s="2">
         <v>315</v>
       </c>
@@ -10803,7 +10790,7 @@
         <v>369.07100000000003</v>
       </c>
     </row>
-    <row r="256" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B256" s="2">
         <v>315</v>
       </c>
@@ -10832,7 +10819,7 @@
         <v>368.85300000000001</v>
       </c>
     </row>
-    <row r="257" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B257" s="2">
         <v>315</v>
       </c>
@@ -10861,7 +10848,7 @@
         <v>356.90600000000001</v>
       </c>
     </row>
-    <row r="258" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B258" s="2">
         <v>315</v>
       </c>
@@ -10890,7 +10877,7 @@
         <v>356.91300000000001</v>
       </c>
     </row>
-    <row r="259" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B259" s="2">
         <v>315</v>
       </c>
@@ -10919,7 +10906,7 @@
         <v>364.42700000000002</v>
       </c>
     </row>
-    <row r="260" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B260" s="2">
         <v>315</v>
       </c>
@@ -10948,7 +10935,7 @@
         <v>317.85399999999998</v>
       </c>
     </row>
-    <row r="261" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B261" s="2">
         <v>315</v>
       </c>
@@ -10977,7 +10964,7 @@
         <v>317.87599999999998</v>
       </c>
     </row>
-    <row r="262" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B262" s="2">
         <v>315</v>
       </c>
@@ -11006,7 +10993,7 @@
         <v>378.90499999999997</v>
       </c>
     </row>
-    <row r="263" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B263" s="2">
         <v>300</v>
       </c>
@@ -11035,7 +11022,7 @@
         <v>368.75099999999998</v>
       </c>
     </row>
-    <row r="264" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B264" s="2">
         <v>300</v>
       </c>
@@ -11064,7 +11051,7 @@
         <v>368.82900000000001</v>
       </c>
     </row>
-    <row r="265" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B265" s="2">
         <v>300</v>
       </c>
@@ -11093,7 +11080,7 @@
         <v>368.83100000000002</v>
       </c>
     </row>
-    <row r="266" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B266" s="2">
         <v>300</v>
       </c>
@@ -11122,7 +11109,7 @@
         <v>368.733</v>
       </c>
     </row>
-    <row r="267" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B267" s="2">
         <v>300</v>
       </c>
@@ -11151,7 +11138,7 @@
         <v>354.54599999999999</v>
       </c>
     </row>
-    <row r="268" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B268" s="2">
         <v>300</v>
       </c>
@@ -11180,7 +11167,7 @@
         <v>354.54599999999999</v>
       </c>
     </row>
-    <row r="269" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B269" s="2">
         <v>300</v>
       </c>
@@ -11209,7 +11196,7 @@
         <v>354.64600000000002</v>
       </c>
     </row>
-    <row r="270" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B270" s="2">
         <v>300</v>
       </c>
@@ -11238,7 +11225,7 @@
         <v>354.68200000000002</v>
       </c>
     </row>
-    <row r="271" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B271" s="2">
         <v>300</v>
       </c>
@@ -11267,7 +11254,7 @@
         <v>359.81400000000002</v>
       </c>
     </row>
-    <row r="272" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B272" s="2">
         <v>300</v>
       </c>
@@ -11296,7 +11283,7 @@
         <v>354.43599999999998</v>
       </c>
     </row>
-    <row r="273" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B273" s="2">
         <v>300</v>
       </c>
@@ -11325,7 +11312,7 @@
         <v>357.03199999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B274" s="2">
         <v>300</v>
       </c>
@@ -11354,7 +11341,7 @@
         <v>367.17</v>
       </c>
     </row>
-    <row r="275" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B275" s="2">
         <v>300</v>
       </c>
@@ -11383,7 +11370,7 @@
         <v>367.06599999999997</v>
       </c>
     </row>
-    <row r="276" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B276" s="2">
         <v>300</v>
       </c>
@@ -11412,7 +11399,7 @@
         <v>366.66199999999998</v>
       </c>
     </row>
-    <row r="277" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B277" s="2">
         <v>300</v>
       </c>
@@ -11441,7 +11428,7 @@
         <v>366.48500000000001</v>
       </c>
     </row>
-    <row r="278" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B278" s="2">
         <v>300</v>
       </c>
@@ -11470,7 +11457,7 @@
         <v>366.48500000000001</v>
       </c>
     </row>
-    <row r="279" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B279" s="2">
         <v>300</v>
       </c>
@@ -11499,7 +11486,7 @@
         <v>366.61</v>
       </c>
     </row>
-    <row r="280" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B280" s="2">
         <v>300</v>
       </c>
@@ -11528,7 +11515,7 @@
         <v>364.43400000000003</v>
       </c>
     </row>
-    <row r="281" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B281" s="2">
         <v>300</v>
       </c>
@@ -11557,7 +11544,7 @@
         <v>317.98700000000002</v>
       </c>
     </row>
-    <row r="282" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B282" s="2">
         <v>300</v>
       </c>
@@ -11586,7 +11573,7 @@
         <v>318.02199999999999</v>
       </c>
     </row>
-    <row r="283" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B283" s="2">
         <v>300</v>
       </c>
@@ -11615,7 +11602,7 @@
         <v>377.774</v>
       </c>
     </row>
-    <row r="284" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B284" s="2">
         <v>300</v>
       </c>
@@ -11644,7 +11631,7 @@
         <v>377.91899999999998</v>
       </c>
     </row>
-    <row r="285" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B285" s="2">
         <v>300</v>
       </c>
@@ -11673,7 +11660,7 @@
         <v>377.83300000000003</v>
       </c>
     </row>
-    <row r="286" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B286" s="2">
         <v>300</v>
       </c>
@@ -11702,7 +11689,7 @@
         <v>379.98700000000002</v>
       </c>
     </row>
-    <row r="287" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B287" s="2">
         <v>300</v>
       </c>
@@ -11731,7 +11718,7 @@
         <v>377.822</v>
       </c>
     </row>
-    <row r="288" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B288" s="2">
         <v>300</v>
       </c>
@@ -11760,7 +11747,7 @@
         <v>363.99599999999998</v>
       </c>
     </row>
-    <row r="289" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B289" s="2">
         <v>300</v>
       </c>
@@ -11789,7 +11776,7 @@
         <v>384.13600000000002</v>
       </c>
     </row>
-    <row r="290" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B290" s="2">
         <v>300</v>
       </c>
@@ -11818,7 +11805,7 @@
         <v>380.55399999999997</v>
       </c>
     </row>
-    <row r="291" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B291" s="2">
         <v>300</v>
       </c>
@@ -11847,7 +11834,7 @@
         <v>378.673</v>
       </c>
     </row>
-    <row r="292" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B292" s="2">
         <v>300</v>
       </c>
@@ -11876,7 +11863,7 @@
         <v>378.68299999999999</v>
       </c>
     </row>
-    <row r="293" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B293" s="2">
         <v>300</v>
       </c>
@@ -11905,7 +11892,7 @@
         <v>385.26100000000002</v>
       </c>
     </row>
-    <row r="294" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B294" s="2">
         <v>292.5</v>
       </c>
@@ -11934,7 +11921,7 @@
         <v>366.55399999999997</v>
       </c>
     </row>
-    <row r="295" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B295" s="2">
         <v>288</v>
       </c>
@@ -11963,7 +11950,7 @@
         <v>366.49400000000003</v>
       </c>
     </row>
-    <row r="296" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B296" s="2">
         <v>280</v>
       </c>
@@ -11992,7 +11979,7 @@
         <v>368.87299999999999</v>
       </c>
     </row>
-    <row r="297" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B297" s="2">
         <v>280</v>
       </c>
@@ -12021,7 +12008,7 @@
         <v>368.93700000000001</v>
       </c>
     </row>
-    <row r="298" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B298" s="2">
         <v>280</v>
       </c>
@@ -12050,7 +12037,7 @@
         <v>356.95600000000002</v>
       </c>
     </row>
-    <row r="299" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B299" s="2">
         <v>280</v>
       </c>
@@ -12079,7 +12066,7 @@
         <v>366.46300000000002</v>
       </c>
     </row>
-    <row r="300" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B300" s="2">
         <v>280</v>
       </c>
@@ -12108,7 +12095,7 @@
         <v>366.47699999999998</v>
       </c>
     </row>
-    <row r="301" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B301" s="2">
         <v>280</v>
       </c>
@@ -12137,7 +12124,7 @@
         <v>366.49799999999999</v>
       </c>
     </row>
-    <row r="302" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B302" s="2">
         <v>280</v>
       </c>
@@ -12166,7 +12153,7 @@
         <v>342.23899999999998</v>
       </c>
     </row>
-    <row r="303" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B303" s="2">
         <v>280</v>
       </c>
@@ -12195,7 +12182,7 @@
         <v>342.23599999999999</v>
       </c>
     </row>
-    <row r="304" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B304" s="2">
         <v>280</v>
       </c>
@@ -12224,7 +12211,7 @@
         <v>342.3</v>
       </c>
     </row>
-    <row r="305" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B305" s="2">
         <v>280</v>
       </c>
@@ -12253,7 +12240,7 @@
         <v>317.93200000000002</v>
       </c>
     </row>
-    <row r="306" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B306" s="2">
         <v>280</v>
       </c>
@@ -12282,7 +12269,7 @@
         <v>364.18299999999999</v>
       </c>
     </row>
-    <row r="307" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B307" s="2">
         <v>280</v>
       </c>
@@ -12311,7 +12298,7 @@
         <v>364.101</v>
       </c>
     </row>
-    <row r="308" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B308" s="2">
         <v>280</v>
       </c>
@@ -12340,7 +12327,7 @@
         <v>378.67500000000001</v>
       </c>
     </row>
-    <row r="309" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B309" s="2">
         <v>280</v>
       </c>
@@ -12369,7 +12356,7 @@
         <v>378.7</v>
       </c>
     </row>
-    <row r="310" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B310" s="2">
         <v>275</v>
       </c>
@@ -12398,7 +12385,7 @@
         <v>366.53</v>
       </c>
     </row>
-    <row r="311" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B311" s="2">
         <v>275</v>
       </c>
@@ -12427,7 +12414,7 @@
         <v>317.91899999999998</v>
       </c>
     </row>
-    <row r="312" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B312" s="2">
         <v>270</v>
       </c>
@@ -12456,7 +12443,7 @@
         <v>368.82799999999997</v>
       </c>
     </row>
-    <row r="313" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B313" s="2">
         <v>270</v>
       </c>
@@ -12485,7 +12472,7 @@
         <v>354.62099999999998</v>
       </c>
     </row>
-    <row r="314" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B314" s="2">
         <v>270</v>
       </c>
@@ -12514,7 +12501,7 @@
         <v>354.64400000000001</v>
       </c>
     </row>
-    <row r="315" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B315" s="2">
         <v>270</v>
       </c>
@@ -12543,7 +12530,7 @@
         <v>354.55200000000002</v>
       </c>
     </row>
-    <row r="316" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B316" s="2">
         <v>270</v>
       </c>
@@ -12572,7 +12559,7 @@
         <v>357.19499999999999</v>
       </c>
     </row>
-    <row r="317" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B317" s="2">
         <v>270</v>
       </c>
@@ -12601,7 +12588,7 @@
         <v>356.89</v>
       </c>
     </row>
-    <row r="318" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B318" s="2">
         <v>270</v>
       </c>
@@ -12630,7 +12617,7 @@
         <v>366.53399999999999</v>
       </c>
     </row>
-    <row r="319" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B319" s="2">
         <v>270</v>
       </c>
@@ -12659,7 +12646,7 @@
         <v>364.49599999999998</v>
       </c>
     </row>
-    <row r="320" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B320" s="2">
         <v>270</v>
       </c>
@@ -12688,7 +12675,7 @@
         <v>364.43</v>
       </c>
     </row>
-    <row r="321" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B321" s="2">
         <v>270</v>
       </c>
@@ -12717,7 +12704,7 @@
         <v>342.178</v>
       </c>
     </row>
-    <row r="322" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B322" s="2">
         <v>270</v>
       </c>
@@ -12746,7 +12733,7 @@
         <v>377.87799999999999</v>
       </c>
     </row>
-    <row r="323" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B323" s="2">
         <v>270</v>
       </c>
@@ -12775,7 +12762,7 @@
         <v>364.07</v>
       </c>
     </row>
-    <row r="324" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B324" s="2">
         <v>270</v>
       </c>
@@ -12804,7 +12791,7 @@
         <v>364.14</v>
       </c>
     </row>
-    <row r="325" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B325" s="2">
         <v>270</v>
       </c>
@@ -12833,7 +12820,7 @@
         <v>364.07</v>
       </c>
     </row>
-    <row r="326" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B326" s="2">
         <v>262.5</v>
       </c>
@@ -12862,7 +12849,7 @@
         <v>342.23399999999998</v>
       </c>
     </row>
-    <row r="327" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B327" s="2">
         <v>262.5</v>
       </c>
@@ -12891,7 +12878,7 @@
         <v>378.90199999999999</v>
       </c>
     </row>
-    <row r="328" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B328" s="2">
         <v>262.5</v>
       </c>
@@ -12920,7 +12907,7 @@
         <v>378.77699999999999</v>
       </c>
     </row>
-    <row r="329" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B329" s="2">
         <v>260</v>
       </c>
@@ -12949,7 +12936,7 @@
         <v>356.90800000000002</v>
       </c>
     </row>
-    <row r="330" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B330" s="2">
         <v>252</v>
       </c>
@@ -12978,7 +12965,7 @@
         <v>364.47300000000001</v>
       </c>
     </row>
-    <row r="331" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B331" s="2">
         <v>250</v>
       </c>
@@ -13007,7 +12994,7 @@
         <v>368.94099999999997</v>
       </c>
     </row>
-    <row r="332" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B332" s="2">
         <v>250</v>
       </c>
@@ -13036,7 +13023,7 @@
         <v>368.72800000000001</v>
       </c>
     </row>
-    <row r="333" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B333" s="2">
         <v>250</v>
       </c>
@@ -13065,7 +13052,7 @@
         <v>354.51100000000002</v>
       </c>
     </row>
-    <row r="334" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B334" s="2">
         <v>250</v>
       </c>
@@ -13094,7 +13081,7 @@
         <v>354.44600000000003</v>
       </c>
     </row>
-    <row r="335" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B335" s="2">
         <v>250</v>
       </c>
@@ -13123,7 +13110,7 @@
         <v>354.54399999999998</v>
       </c>
     </row>
-    <row r="336" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B336" s="2">
         <v>250</v>
       </c>
@@ -13152,7 +13139,7 @@
         <v>354.43099999999998</v>
       </c>
     </row>
-    <row r="337" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B337" s="2">
         <v>250</v>
       </c>
@@ -13181,7 +13168,7 @@
         <v>356.964</v>
       </c>
     </row>
-    <row r="338" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B338" s="2">
         <v>250</v>
       </c>
@@ -13210,7 +13197,7 @@
         <v>366.61200000000002</v>
       </c>
     </row>
-    <row r="339" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B339" s="2">
         <v>250</v>
       </c>
@@ -13239,7 +13226,7 @@
         <v>364.43200000000002</v>
       </c>
     </row>
-    <row r="340" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B340" s="2">
         <v>250</v>
       </c>
@@ -13268,7 +13255,7 @@
         <v>342.73099999999999</v>
       </c>
     </row>
-    <row r="341" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B341" s="2">
         <v>250</v>
       </c>
@@ -13297,7 +13284,7 @@
         <v>318.12099999999998</v>
       </c>
     </row>
-    <row r="342" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B342" s="2">
         <v>250</v>
       </c>
@@ -13326,7 +13313,7 @@
         <v>377.81799999999998</v>
       </c>
     </row>
-    <row r="343" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B343" s="2">
         <v>250</v>
       </c>
@@ -13355,7 +13342,7 @@
         <v>364.61599999999999</v>
       </c>
     </row>
-    <row r="344" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B344" s="2">
         <v>250</v>
       </c>
@@ -13384,7 +13371,7 @@
         <v>378.68099999999998</v>
       </c>
     </row>
-    <row r="345" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B345" s="2">
         <v>247.5</v>
       </c>
@@ -13413,7 +13400,7 @@
         <v>368.798</v>
       </c>
     </row>
-    <row r="346" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B346" s="2">
         <v>247.5</v>
       </c>
@@ -13442,7 +13429,7 @@
         <v>366.53</v>
       </c>
     </row>
-    <row r="347" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B347" s="2">
         <v>245</v>
       </c>
@@ -13471,7 +13458,7 @@
         <v>356.97199999999998</v>
       </c>
     </row>
-    <row r="348" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B348" s="2">
         <v>245</v>
       </c>
@@ -13500,7 +13487,7 @@
         <v>366.44400000000002</v>
       </c>
     </row>
-    <row r="349" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B349" s="2">
         <v>245</v>
       </c>
@@ -13529,7 +13516,7 @@
         <v>364.447</v>
       </c>
     </row>
-    <row r="350" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B350" s="2">
         <v>245</v>
       </c>
@@ -13558,7 +13545,7 @@
         <v>364.1</v>
       </c>
     </row>
-    <row r="351" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B351" s="2">
         <v>240</v>
       </c>
@@ -13587,7 +13574,7 @@
         <v>368.93200000000002</v>
       </c>
     </row>
-    <row r="352" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B352" s="2">
         <v>240</v>
       </c>
@@ -13616,7 +13603,7 @@
         <v>368.81099999999998</v>
       </c>
     </row>
-    <row r="353" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B353" s="2">
         <v>240</v>
       </c>
@@ -13645,7 +13632,7 @@
         <v>354.46199999999999</v>
       </c>
     </row>
-    <row r="354" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B354" s="2">
         <v>240</v>
       </c>
@@ -13674,7 +13661,7 @@
         <v>354.53</v>
       </c>
     </row>
-    <row r="355" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B355" s="2">
         <v>240</v>
       </c>
@@ -13703,7 +13690,7 @@
         <v>354.53</v>
       </c>
     </row>
-    <row r="356" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B356" s="2">
         <v>240</v>
       </c>
@@ -13732,7 +13719,7 @@
         <v>354.43700000000001</v>
       </c>
     </row>
-    <row r="357" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B357" s="2">
         <v>240</v>
       </c>
@@ -13761,7 +13748,7 @@
         <v>354.53</v>
       </c>
     </row>
-    <row r="358" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B358" s="2">
         <v>240</v>
       </c>
@@ -13790,7 +13777,7 @@
         <v>354.642</v>
       </c>
     </row>
-    <row r="359" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B359" s="2">
         <v>240</v>
       </c>
@@ -13819,7 +13806,7 @@
         <v>356.94</v>
       </c>
     </row>
-    <row r="360" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B360" s="2">
         <v>240</v>
       </c>
@@ -13848,7 +13835,7 @@
         <v>357.02499999999998</v>
       </c>
     </row>
-    <row r="361" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B361" s="2">
         <v>240</v>
       </c>
@@ -13877,7 +13864,7 @@
         <v>358.529</v>
       </c>
     </row>
-    <row r="362" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B362" s="2">
         <v>240</v>
       </c>
@@ -13906,7 +13893,7 @@
         <v>356.88600000000002</v>
       </c>
     </row>
-    <row r="363" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B363" s="2">
         <v>240</v>
       </c>
@@ -13935,7 +13922,7 @@
         <v>366.49</v>
       </c>
     </row>
-    <row r="364" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B364" s="2">
         <v>240</v>
       </c>
@@ -13964,7 +13951,7 @@
         <v>366.60500000000002</v>
       </c>
     </row>
-    <row r="365" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B365" s="2">
         <v>240</v>
       </c>
@@ -13993,7 +13980,7 @@
         <v>366.49299999999999</v>
       </c>
     </row>
-    <row r="366" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B366" s="2">
         <v>240</v>
       </c>
@@ -14022,7 +14009,7 @@
         <v>366.43599999999998</v>
       </c>
     </row>
-    <row r="367" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B367" s="2">
         <v>240</v>
       </c>
@@ -14051,7 +14038,7 @@
         <v>364.60899999999998</v>
       </c>
     </row>
-    <row r="368" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B368" s="2">
         <v>240</v>
       </c>
@@ -14080,7 +14067,7 @@
         <v>364.42099999999999</v>
       </c>
     </row>
-    <row r="369" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B369" s="2">
         <v>240</v>
       </c>
@@ -14109,7 +14096,7 @@
         <v>342.178</v>
       </c>
     </row>
-    <row r="370" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B370" s="2">
         <v>240</v>
       </c>
@@ -14138,7 +14125,7 @@
         <v>342.23200000000003</v>
       </c>
     </row>
-    <row r="371" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B371" s="2">
         <v>240</v>
       </c>
@@ -14167,7 +14154,7 @@
         <v>364.15199999999999</v>
       </c>
     </row>
-    <row r="372" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B372" s="2">
         <v>240</v>
       </c>
@@ -14196,7 +14183,7 @@
         <v>363.99799999999999</v>
       </c>
     </row>
-    <row r="373" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B373" s="2">
         <v>240</v>
       </c>
@@ -14225,7 +14212,7 @@
         <v>378.68799999999999</v>
       </c>
     </row>
-    <row r="374" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B374" s="2">
         <v>240</v>
       </c>
@@ -14254,7 +14241,7 @@
         <v>378.899</v>
       </c>
     </row>
-    <row r="375" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B375" s="2">
         <v>227.5</v>
       </c>
@@ -14283,7 +14270,7 @@
         <v>317.86900000000003</v>
       </c>
     </row>
-    <row r="376" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B376" s="2">
         <v>225</v>
       </c>
@@ -14312,7 +14299,7 @@
         <v>368.822</v>
       </c>
     </row>
-    <row r="377" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B377" s="2">
         <v>225</v>
       </c>
@@ -14341,7 +14328,7 @@
         <v>366.48500000000001</v>
       </c>
     </row>
-    <row r="378" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B378" s="2">
         <v>225</v>
       </c>
@@ -14370,7 +14357,7 @@
         <v>366.435</v>
       </c>
     </row>
-    <row r="379" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B379" s="2">
         <v>225</v>
       </c>
@@ -14399,7 +14386,7 @@
         <v>366.41500000000002</v>
       </c>
     </row>
-    <row r="380" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B380" s="2">
         <v>225</v>
       </c>
@@ -14428,7 +14415,7 @@
         <v>317.90300000000002</v>
       </c>
     </row>
-    <row r="381" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B381" s="2">
         <v>225</v>
       </c>
@@ -14457,7 +14444,7 @@
         <v>317.93799999999999</v>
       </c>
     </row>
-    <row r="382" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B382" s="2">
         <v>225</v>
       </c>
@@ -14486,7 +14473,7 @@
         <v>377.87599999999998</v>
       </c>
     </row>
-    <row r="383" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B383" s="2">
         <v>225</v>
       </c>
@@ -14515,7 +14502,7 @@
         <v>378.774</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B384" s="2">
         <v>220</v>
       </c>
@@ -14544,7 +14531,7 @@
         <v>377.86599999999999</v>
       </c>
     </row>
-    <row r="385" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B385" s="2">
         <v>220</v>
       </c>
@@ -14573,7 +14560,7 @@
         <v>378.68400000000003</v>
       </c>
     </row>
-    <row r="386" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B386" s="2">
         <v>220</v>
       </c>
@@ -14602,7 +14589,7 @@
         <v>378.95400000000001</v>
       </c>
     </row>
-    <row r="387" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B387" s="2">
         <v>216</v>
       </c>
@@ -14631,7 +14618,7 @@
         <v>317.99900000000002</v>
       </c>
     </row>
-    <row r="388" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B388" s="2">
         <v>210</v>
       </c>
@@ -14660,7 +14647,7 @@
         <v>354.64100000000002</v>
       </c>
     </row>
-    <row r="389" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B389" s="2">
         <v>210</v>
       </c>
@@ -14689,7 +14676,7 @@
         <v>354.64100000000002</v>
       </c>
     </row>
-    <row r="390" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B390" s="2">
         <v>210</v>
       </c>
@@ -14718,7 +14705,7 @@
         <v>356.91</v>
       </c>
     </row>
-    <row r="391" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B391" s="2">
         <v>210</v>
       </c>
@@ -14747,7 +14734,7 @@
         <v>366.60300000000001</v>
       </c>
     </row>
-    <row r="392" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B392" s="2">
         <v>210</v>
       </c>
@@ -14776,7 +14763,7 @@
         <v>366.44299999999998</v>
       </c>
     </row>
-    <row r="393" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B393" s="2">
         <v>210</v>
       </c>
@@ -14805,7 +14792,7 @@
         <v>364.44600000000003</v>
       </c>
     </row>
-    <row r="394" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B394" s="2">
         <v>210</v>
       </c>
@@ -14834,7 +14821,7 @@
         <v>342.23099999999999</v>
       </c>
     </row>
-    <row r="395" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B395" s="2">
         <v>210</v>
       </c>
@@ -14863,7 +14850,7 @@
         <v>342.28699999999998</v>
       </c>
     </row>
-    <row r="396" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B396" s="2">
         <v>210</v>
       </c>
@@ -14892,7 +14879,7 @@
         <v>342.23</v>
       </c>
     </row>
-    <row r="397" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B397" s="2">
         <v>210</v>
       </c>
@@ -14921,7 +14908,7 @@
         <v>342.24400000000003</v>
       </c>
     </row>
-    <row r="398" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B398" s="2">
         <v>210</v>
       </c>
@@ -14950,7 +14937,7 @@
         <v>317.99700000000001</v>
       </c>
     </row>
-    <row r="399" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B399" s="2">
         <v>210</v>
       </c>
@@ -14979,7 +14966,7 @@
         <v>317.84899999999999</v>
       </c>
     </row>
-    <row r="400" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B400" s="2">
         <v>210</v>
       </c>
@@ -15008,7 +14995,7 @@
         <v>317.84800000000001</v>
       </c>
     </row>
-    <row r="401" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B401" s="2">
         <v>210</v>
       </c>
@@ -15037,7 +15024,7 @@
         <v>377.76299999999998</v>
       </c>
     </row>
-    <row r="402" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B402" s="2">
         <v>210</v>
       </c>
@@ -15066,7 +15053,7 @@
         <v>377.904</v>
       </c>
     </row>
-    <row r="403" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B403" s="2">
         <v>210</v>
       </c>
@@ -15095,7 +15082,7 @@
         <v>377.81599999999997</v>
       </c>
     </row>
-    <row r="404" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B404" s="2">
         <v>210</v>
       </c>
@@ -15124,7 +15111,7 @@
         <v>378.99599999999998</v>
       </c>
     </row>
-    <row r="405" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B405" s="2">
         <v>202.5</v>
       </c>
@@ -15153,7 +15140,7 @@
         <v>354.43900000000002</v>
       </c>
     </row>
-    <row r="406" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B406" s="2">
         <v>200</v>
       </c>
@@ -15182,7 +15169,7 @@
         <v>368.84399999999999</v>
       </c>
     </row>
-    <row r="407" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B407" s="2">
         <v>200</v>
       </c>
@@ -15211,7 +15198,7 @@
         <v>368.87700000000001</v>
       </c>
     </row>
-    <row r="408" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B408" s="2">
         <v>200</v>
       </c>
@@ -15240,7 +15227,7 @@
         <v>368.928</v>
       </c>
     </row>
-    <row r="409" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B409" s="2">
         <v>200</v>
       </c>
@@ -15269,7 +15256,7 @@
         <v>368.72300000000001</v>
       </c>
     </row>
-    <row r="410" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B410" s="2">
         <v>200</v>
       </c>
@@ -15298,7 +15285,7 @@
         <v>354.53399999999999</v>
       </c>
     </row>
-    <row r="411" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B411" s="2">
         <v>200</v>
       </c>
@@ -15327,7 +15314,7 @@
         <v>356.952</v>
       </c>
     </row>
-    <row r="412" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B412" s="2">
         <v>200</v>
       </c>
@@ -15356,7 +15343,7 @@
         <v>357.024</v>
       </c>
     </row>
-    <row r="413" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B413" s="2">
         <v>200</v>
       </c>
@@ -15385,7 +15372,7 @@
         <v>357.10300000000001</v>
       </c>
     </row>
-    <row r="414" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B414" s="2">
         <v>200</v>
       </c>
@@ -15414,7 +15401,7 @@
         <v>357.01900000000001</v>
       </c>
     </row>
-    <row r="415" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B415" s="2">
         <v>200</v>
       </c>
@@ -15443,7 +15430,7 @@
         <v>366.63</v>
       </c>
     </row>
-    <row r="416" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B416" s="2">
         <v>200</v>
       </c>
@@ -15472,7 +15459,7 @@
         <v>366.90600000000001</v>
       </c>
     </row>
-    <row r="417" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B417" s="2">
         <v>200</v>
       </c>
@@ -15501,7 +15488,7 @@
         <v>366.61099999999999</v>
       </c>
     </row>
-    <row r="418" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B418" s="2">
         <v>200</v>
       </c>
@@ -15530,7 +15517,7 @@
         <v>364.53</v>
       </c>
     </row>
-    <row r="419" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B419" s="2">
         <v>200</v>
       </c>
@@ -15559,7 +15546,7 @@
         <v>364.54899999999998</v>
       </c>
     </row>
-    <row r="420" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B420" s="2">
         <v>200</v>
       </c>
@@ -15588,7 +15575,7 @@
         <v>364.416</v>
       </c>
     </row>
-    <row r="421" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B421" s="2">
         <v>200</v>
       </c>
@@ -15617,7 +15604,7 @@
         <v>364.49</v>
       </c>
     </row>
-    <row r="422" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B422" s="2">
         <v>200</v>
       </c>
@@ -15646,7 +15633,7 @@
         <v>364.43</v>
       </c>
     </row>
-    <row r="423" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B423" s="2">
         <v>200</v>
       </c>
@@ -15675,7 +15662,7 @@
         <v>364.416</v>
       </c>
     </row>
-    <row r="424" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B424" s="2">
         <v>200</v>
       </c>
@@ -15704,7 +15691,7 @@
         <v>364.56</v>
       </c>
     </row>
-    <row r="425" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B425" s="2">
         <v>200</v>
       </c>
@@ -15733,7 +15720,7 @@
         <v>342.23500000000001</v>
       </c>
     </row>
-    <row r="426" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B426" s="2">
         <v>200</v>
       </c>
@@ -15762,7 +15749,7 @@
         <v>317.90699999999998</v>
       </c>
     </row>
-    <row r="427" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B427" s="2">
         <v>200</v>
       </c>
@@ -15791,7 +15778,7 @@
         <v>318.12</v>
       </c>
     </row>
-    <row r="428" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B428" s="2">
         <v>200</v>
       </c>
@@ -15820,7 +15807,7 @@
         <v>378.262</v>
       </c>
     </row>
-    <row r="429" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B429" s="2">
         <v>200</v>
       </c>
@@ -15849,7 +15836,7 @@
         <v>377.82400000000001</v>
       </c>
     </row>
-    <row r="430" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B430" s="2">
         <v>200</v>
       </c>
@@ -15878,7 +15865,7 @@
         <v>377.82600000000002</v>
       </c>
     </row>
-    <row r="431" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B431" s="2">
         <v>200</v>
       </c>
@@ -15907,7 +15894,7 @@
         <v>377.77199999999999</v>
       </c>
     </row>
-    <row r="432" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B432" s="2">
         <v>200</v>
       </c>
@@ -15936,7 +15923,7 @@
         <v>364.08100000000002</v>
       </c>
     </row>
-    <row r="433" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B433" s="2">
         <v>200</v>
       </c>
@@ -15965,7 +15952,7 @@
         <v>378.93799999999999</v>
       </c>
     </row>
-    <row r="434" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B434" s="2">
         <v>195</v>
       </c>
@@ -15994,7 +15981,7 @@
         <v>364.50700000000001</v>
       </c>
     </row>
-    <row r="435" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B435" s="2">
         <v>192.5</v>
       </c>
@@ -16023,7 +16010,7 @@
         <v>368.88499999999999</v>
       </c>
     </row>
-    <row r="436" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B436" s="2">
         <v>189</v>
       </c>
@@ -16052,7 +16039,7 @@
         <v>377.89800000000002</v>
       </c>
     </row>
-    <row r="437" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B437" s="2">
         <v>187.5</v>
       </c>
@@ -16081,7 +16068,7 @@
         <v>342.19200000000001</v>
       </c>
     </row>
-    <row r="438" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B438" s="2">
         <v>187.5</v>
       </c>
@@ -16110,7 +16097,7 @@
         <v>342.22899999999998</v>
       </c>
     </row>
-    <row r="439" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B439" s="2">
         <v>187.5</v>
       </c>
@@ -16139,7 +16126,7 @@
         <v>317.93</v>
       </c>
     </row>
-    <row r="440" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B440" s="2">
         <v>180</v>
       </c>
@@ -16168,7 +16155,7 @@
         <v>368.92599999999999</v>
       </c>
     </row>
-    <row r="441" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B441" s="2">
         <v>180</v>
       </c>
@@ -16197,7 +16184,7 @@
         <v>354.52699999999999</v>
       </c>
     </row>
-    <row r="442" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B442" s="2">
         <v>180</v>
       </c>
@@ -16226,7 +16213,7 @@
         <v>356.98700000000002</v>
       </c>
     </row>
-    <row r="443" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B443" s="2">
         <v>180</v>
       </c>
@@ -16255,7 +16242,7 @@
         <v>356.94600000000003</v>
       </c>
     </row>
-    <row r="444" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B444" s="2">
         <v>180</v>
       </c>
@@ -16284,7 +16271,7 @@
         <v>357.10199999999998</v>
       </c>
     </row>
-    <row r="445" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B445" s="2">
         <v>180</v>
       </c>
@@ -16313,7 +16300,7 @@
         <v>366.488</v>
       </c>
     </row>
-    <row r="446" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B446" s="2">
         <v>180</v>
       </c>
@@ -16342,7 +16329,7 @@
         <v>366.41</v>
       </c>
     </row>
-    <row r="447" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B447" s="2">
         <v>180</v>
       </c>
@@ -16371,7 +16358,7 @@
         <v>366.47399999999999</v>
       </c>
     </row>
-    <row r="448" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B448" s="2">
         <v>180</v>
       </c>
@@ -16400,7 +16387,7 @@
         <v>366.46199999999999</v>
       </c>
     </row>
-    <row r="449" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B449" s="2">
         <v>180</v>
       </c>
@@ -16429,7 +16416,7 @@
         <v>366.601</v>
       </c>
     </row>
-    <row r="450" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B450" s="2">
         <v>180</v>
       </c>
@@ -16458,7 +16445,7 @@
         <v>366.41199999999998</v>
       </c>
     </row>
-    <row r="451" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B451" s="2">
         <v>180</v>
       </c>
@@ -16487,7 +16474,7 @@
         <v>364.416</v>
       </c>
     </row>
-    <row r="452" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B452" s="2">
         <v>180</v>
       </c>
@@ -16516,7 +16503,7 @@
         <v>364.57600000000002</v>
       </c>
     </row>
-    <row r="453" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B453" s="2">
         <v>180</v>
       </c>
@@ -16545,7 +16532,7 @@
         <v>342.351</v>
       </c>
     </row>
-    <row r="454" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B454" s="2">
         <v>180</v>
       </c>
@@ -16574,7 +16561,7 @@
         <v>342.17500000000001</v>
       </c>
     </row>
-    <row r="455" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B455" s="2">
         <v>180</v>
       </c>
@@ -16603,7 +16590,7 @@
         <v>342.173</v>
       </c>
     </row>
-    <row r="456" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B456" s="2">
         <v>180</v>
       </c>
@@ -16632,7 +16619,7 @@
         <v>342.32100000000003</v>
       </c>
     </row>
-    <row r="457" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B457" s="2">
         <v>180</v>
       </c>
@@ -16661,7 +16648,7 @@
         <v>317.98899999999998</v>
       </c>
     </row>
-    <row r="458" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B458" s="2">
         <v>180</v>
       </c>
@@ -16690,7 +16677,7 @@
         <v>317.84399999999999</v>
       </c>
     </row>
-    <row r="459" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B459" s="2">
         <v>180</v>
       </c>
@@ -16719,7 +16706,7 @@
         <v>377.86200000000002</v>
       </c>
     </row>
-    <row r="460" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B460" s="2">
         <v>180</v>
       </c>
@@ -16748,7 +16735,7 @@
         <v>364.01499999999999</v>
       </c>
     </row>
-    <row r="461" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B461" s="2">
         <v>180</v>
       </c>
@@ -16777,7 +16764,7 @@
         <v>364.06400000000002</v>
       </c>
     </row>
-    <row r="462" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B462" s="2">
         <v>180</v>
       </c>
@@ -16806,7 +16793,7 @@
         <v>378.64699999999999</v>
       </c>
     </row>
-    <row r="463" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B463" s="2">
         <v>180</v>
       </c>
@@ -16835,7 +16822,7 @@
         <v>382.27300000000002</v>
       </c>
     </row>
-    <row r="464" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B464" s="2">
         <v>180</v>
       </c>
@@ -16864,7 +16851,7 @@
         <v>378.76900000000001</v>
       </c>
     </row>
-    <row r="465" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B465" s="2">
         <v>175</v>
       </c>
@@ -16893,7 +16880,7 @@
         <v>354.46199999999999</v>
       </c>
     </row>
-    <row r="466" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B466" s="2">
         <v>175</v>
       </c>
@@ -16922,7 +16909,7 @@
         <v>354.55799999999999</v>
       </c>
     </row>
-    <row r="467" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B467" s="2">
         <v>175</v>
       </c>
@@ -16951,7 +16938,7 @@
         <v>356.90899999999999</v>
       </c>
     </row>
-    <row r="468" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B468" s="2">
         <v>175</v>
       </c>
@@ -16980,7 +16967,7 @@
         <v>366.46699999999998</v>
       </c>
     </row>
-    <row r="469" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B469" s="2">
         <v>175</v>
       </c>
@@ -17009,7 +16996,7 @@
         <v>364.41899999999998</v>
       </c>
     </row>
-    <row r="470" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B470" s="2">
         <v>175</v>
       </c>
@@ -17038,7 +17025,7 @@
         <v>364.55900000000003</v>
       </c>
     </row>
-    <row r="471" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B471" s="2">
         <v>175</v>
       </c>
@@ -17067,7 +17054,7 @@
         <v>364.48200000000003</v>
       </c>
     </row>
-    <row r="472" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B472" s="2">
         <v>175</v>
       </c>
@@ -17096,7 +17083,7 @@
         <v>364.18</v>
       </c>
     </row>
-    <row r="473" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B473" s="2">
         <v>175</v>
       </c>
@@ -17125,7 +17112,7 @@
         <v>378.92899999999997</v>
       </c>
     </row>
-    <row r="474" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B474" s="2">
         <v>168.75</v>
       </c>
@@ -17154,7 +17141,7 @@
         <v>363.58699999999999</v>
       </c>
     </row>
-    <row r="475" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B475" s="2">
         <v>168.75</v>
       </c>
@@ -17183,7 +17170,7 @@
         <v>342.19099999999997</v>
       </c>
     </row>
-    <row r="476" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B476" s="2">
         <v>168</v>
       </c>
@@ -17212,7 +17199,7 @@
         <v>377.892</v>
       </c>
     </row>
-    <row r="477" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B477" s="2">
         <v>165</v>
       </c>
@@ -17241,7 +17228,7 @@
         <v>364.57299999999998</v>
       </c>
     </row>
-    <row r="478" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B478" s="2">
         <v>165</v>
       </c>
@@ -17270,7 +17257,7 @@
         <v>342.322</v>
       </c>
     </row>
-    <row r="479" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B479" s="2">
         <v>165</v>
       </c>
@@ -17299,7 +17286,7 @@
         <v>377.81799999999998</v>
       </c>
     </row>
-    <row r="480" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B480" s="2">
         <v>162.5</v>
       </c>
@@ -17328,7 +17315,7 @@
         <v>368.84399999999999</v>
       </c>
     </row>
-    <row r="481" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B481" s="2">
         <v>162.5</v>
       </c>
@@ -17357,7 +17344,7 @@
         <v>342.52199999999999</v>
       </c>
     </row>
-    <row r="482" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B482" s="2">
         <v>162</v>
       </c>
@@ -17386,7 +17373,7 @@
         <v>364.214</v>
       </c>
     </row>
-    <row r="483" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B483" s="2">
         <v>160</v>
       </c>
@@ -17415,7 +17402,7 @@
         <v>369.06200000000001</v>
       </c>
     </row>
-    <row r="484" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B484" s="2">
         <v>160</v>
       </c>
@@ -17444,7 +17431,7 @@
         <v>354.43299999999999</v>
       </c>
     </row>
-    <row r="485" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B485" s="2">
         <v>160</v>
       </c>
@@ -17473,7 +17460,7 @@
         <v>357.10199999999998</v>
       </c>
     </row>
-    <row r="486" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B486" s="2">
         <v>160</v>
       </c>
@@ -17502,7 +17489,7 @@
         <v>366.41699999999997</v>
       </c>
     </row>
-    <row r="487" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B487" s="2">
         <v>160</v>
       </c>
@@ -17531,7 +17518,7 @@
         <v>342.233</v>
       </c>
     </row>
-    <row r="488" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B488" s="2">
         <v>160</v>
       </c>
@@ -17560,7 +17547,7 @@
         <v>342.22699999999998</v>
       </c>
     </row>
-    <row r="489" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B489" s="2">
         <v>160</v>
       </c>
@@ -17589,7 +17576,7 @@
         <v>342.23</v>
       </c>
     </row>
-    <row r="490" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B490" s="2">
         <v>160</v>
       </c>
@@ -17618,7 +17605,7 @@
         <v>342.21499999999997</v>
       </c>
     </row>
-    <row r="491" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B491" s="2">
         <v>160</v>
       </c>
@@ -17647,7 +17634,7 @@
         <v>342.29</v>
       </c>
     </row>
-    <row r="492" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B492" s="2">
         <v>160</v>
       </c>
@@ -17676,7 +17663,7 @@
         <v>317.85500000000002</v>
       </c>
     </row>
-    <row r="493" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B493" s="2">
         <v>160</v>
       </c>
@@ -17705,7 +17692,7 @@
         <v>377.76400000000001</v>
       </c>
     </row>
-    <row r="494" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B494" s="2">
         <v>160</v>
       </c>
@@ -17734,7 +17721,7 @@
         <v>377.75700000000001</v>
       </c>
     </row>
-    <row r="495" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B495" s="2">
         <v>160</v>
       </c>
@@ -17763,7 +17750,7 @@
         <v>377.76400000000001</v>
       </c>
     </row>
-    <row r="496" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B496" s="2">
         <v>160</v>
       </c>
@@ -17792,7 +17779,7 @@
         <v>378.923</v>
       </c>
     </row>
-    <row r="497" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B497" s="2">
         <v>157.5</v>
       </c>
@@ -17821,7 +17808,7 @@
         <v>368.82100000000003</v>
       </c>
     </row>
-    <row r="498" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B498" s="2">
         <v>157.5</v>
       </c>
@@ -17850,7 +17837,7 @@
         <v>377.76100000000002</v>
       </c>
     </row>
-    <row r="499" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B499" s="2">
         <v>157.5</v>
       </c>
@@ -17879,7 +17866,7 @@
         <v>377.76100000000002</v>
       </c>
     </row>
-    <row r="500" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B500" s="2">
         <v>150</v>
       </c>
@@ -17908,7 +17895,7 @@
         <v>369.99599999999998</v>
       </c>
     </row>
-    <row r="501" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B501" s="2">
         <v>150</v>
       </c>
@@ -17937,7 +17924,7 @@
         <v>369.17200000000003</v>
       </c>
     </row>
-    <row r="502" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B502" s="2">
         <v>150</v>
       </c>
@@ -17966,7 +17953,7 @@
         <v>375.28800000000001</v>
       </c>
     </row>
-    <row r="503" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B503" s="2">
         <v>150</v>
       </c>
@@ -17995,7 +17982,7 @@
         <v>353.56299999999999</v>
       </c>
     </row>
-    <row r="504" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B504" s="2">
         <v>150</v>
       </c>
@@ -18024,7 +18011,7 @@
         <v>354.42500000000001</v>
       </c>
     </row>
-    <row r="505" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B505" s="2">
         <v>150</v>
       </c>
@@ -18053,7 +18040,7 @@
         <v>356.85</v>
       </c>
     </row>
-    <row r="506" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B506" s="2">
         <v>150</v>
       </c>
@@ -18082,7 +18069,7 @@
         <v>356.94299999999998</v>
       </c>
     </row>
-    <row r="507" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B507" s="2">
         <v>150</v>
       </c>
@@ -18111,7 +18098,7 @@
         <v>356.976</v>
       </c>
     </row>
-    <row r="508" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B508" s="2">
         <v>150</v>
       </c>
@@ -18140,7 +18127,7 @@
         <v>356.94299999999998</v>
       </c>
     </row>
-    <row r="509" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B509" s="2">
         <v>150</v>
       </c>
@@ -18169,7 +18156,7 @@
         <v>366.82</v>
       </c>
     </row>
-    <row r="510" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B510" s="2">
         <v>150</v>
       </c>
@@ -18198,7 +18185,7 @@
         <v>366.54300000000001</v>
       </c>
     </row>
-    <row r="511" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B511" s="2">
         <v>150</v>
       </c>
@@ -18227,7 +18214,7 @@
         <v>366.60899999999998</v>
       </c>
     </row>
-    <row r="512" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B512" s="2">
         <v>150</v>
       </c>
@@ -18256,7 +18243,7 @@
         <v>366.47899999999998</v>
       </c>
     </row>
-    <row r="513" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B513" s="2">
         <v>150</v>
       </c>
@@ -18285,7 +18272,7 @@
         <v>366.42399999999998</v>
       </c>
     </row>
-    <row r="514" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B514" s="2">
         <v>150</v>
       </c>
@@ -18314,7 +18301,7 @@
         <v>366.44600000000003</v>
       </c>
     </row>
-    <row r="515" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B515" s="2">
         <v>150</v>
       </c>
@@ -18343,7 +18330,7 @@
         <v>366.4</v>
       </c>
     </row>
-    <row r="516" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B516" s="2">
         <v>150</v>
       </c>
@@ -18372,7 +18359,7 @@
         <v>365.54599999999999</v>
       </c>
     </row>
-    <row r="517" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B517" s="2">
         <v>150</v>
       </c>
@@ -18401,7 +18388,7 @@
         <v>366.41</v>
       </c>
     </row>
-    <row r="518" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B518" s="2">
         <v>150</v>
       </c>
@@ -18430,7 +18417,7 @@
         <v>364.51</v>
       </c>
     </row>
-    <row r="519" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B519" s="2">
         <v>150</v>
       </c>
@@ -18459,7 +18446,7 @@
         <v>364.428</v>
       </c>
     </row>
-    <row r="520" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B520" s="2">
         <v>150</v>
       </c>
@@ -18488,7 +18475,7 @@
         <v>364.48</v>
       </c>
     </row>
-    <row r="521" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B521" s="2">
         <v>150</v>
       </c>
@@ -18517,7 +18504,7 @@
         <v>364.48099999999999</v>
       </c>
     </row>
-    <row r="522" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B522" s="2">
         <v>150</v>
       </c>
@@ -18546,7 +18533,7 @@
         <v>342.291</v>
       </c>
     </row>
-    <row r="523" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B523" s="2">
         <v>150</v>
       </c>
@@ -18575,7 +18562,7 @@
         <v>318.02</v>
       </c>
     </row>
-    <row r="524" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B524" s="2">
         <v>150</v>
       </c>
@@ -18604,7 +18591,7 @@
         <v>317.85500000000002</v>
       </c>
     </row>
-    <row r="525" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B525" s="2">
         <v>150</v>
       </c>
@@ -18633,7 +18620,7 @@
         <v>317.839</v>
       </c>
     </row>
-    <row r="526" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B526" s="2">
         <v>150</v>
       </c>
@@ -18662,7 +18649,7 @@
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="527" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B527" s="2">
         <v>150</v>
       </c>
@@ -18691,7 +18678,7 @@
         <v>318.11900000000003</v>
       </c>
     </row>
-    <row r="528" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B528" s="2">
         <v>150</v>
       </c>
@@ -18720,7 +18707,7 @@
         <v>378.15300000000002</v>
       </c>
     </row>
-    <row r="529" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B529" s="2">
         <v>150</v>
       </c>
@@ -18749,7 +18736,7 @@
         <v>377.78800000000001</v>
       </c>
     </row>
-    <row r="530" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B530" s="2">
         <v>150</v>
       </c>
@@ -18778,7 +18765,7 @@
         <v>377.81</v>
       </c>
     </row>
-    <row r="531" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B531" s="2">
         <v>150</v>
       </c>
@@ -18807,7 +18794,7 @@
         <v>365.83</v>
       </c>
     </row>
-    <row r="532" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B532" s="2">
         <v>150</v>
       </c>
@@ -18836,7 +18823,7 @@
         <v>364.06200000000001</v>
       </c>
     </row>
-    <row r="533" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B533" s="2">
         <v>150</v>
       </c>
@@ -18865,7 +18852,7 @@
         <v>363.97899999999998</v>
       </c>
     </row>
-    <row r="534" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B534" s="2">
         <v>150</v>
       </c>
@@ -18894,7 +18881,7 @@
         <v>363.98099999999999</v>
       </c>
     </row>
-    <row r="535" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B535" s="2">
         <v>150</v>
       </c>
@@ -18923,7 +18910,7 @@
         <v>364.05900000000003</v>
       </c>
     </row>
-    <row r="536" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B536" s="2">
         <v>150</v>
       </c>
@@ -18952,7 +18939,7 @@
         <v>378.92</v>
       </c>
     </row>
-    <row r="537" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B537" s="2">
         <v>150</v>
       </c>
@@ -18981,7 +18968,7 @@
         <v>378.67700000000002</v>
       </c>
     </row>
-    <row r="538" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B538" s="2">
         <v>150</v>
       </c>
@@ -19010,7 +18997,7 @@
         <v>378.80700000000002</v>
       </c>
     </row>
-    <row r="539" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B539" s="2">
         <v>147</v>
       </c>
@@ -19039,7 +19026,7 @@
         <v>317.85599999999999</v>
       </c>
     </row>
-    <row r="540" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B540" s="2">
         <v>144</v>
       </c>
@@ -19068,7 +19055,7 @@
         <v>368.74599999999998</v>
       </c>
     </row>
-    <row r="541" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B541" s="2">
         <v>144</v>
       </c>
@@ -19097,7 +19084,7 @@
         <v>353.64600000000002</v>
       </c>
     </row>
-    <row r="542" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B542" s="2">
         <v>140</v>
       </c>
@@ -19126,7 +19113,7 @@
         <v>369.04</v>
       </c>
     </row>
-    <row r="543" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B543" s="2">
         <v>140</v>
       </c>
@@ -19155,7 +19142,7 @@
         <v>368.82</v>
       </c>
     </row>
-    <row r="544" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B544" s="2">
         <v>140</v>
       </c>
@@ -19184,7 +19171,7 @@
         <v>368.72300000000001</v>
       </c>
     </row>
-    <row r="545" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B545" s="2">
         <v>140</v>
       </c>
@@ -19213,7 +19200,7 @@
         <v>369.06700000000001</v>
       </c>
     </row>
-    <row r="546" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B546" s="2">
         <v>140</v>
       </c>
@@ -19242,7 +19229,7 @@
         <v>357.101</v>
       </c>
     </row>
-    <row r="547" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B547" s="2">
         <v>140</v>
       </c>
@@ -19271,7 +19258,7 @@
         <v>366.46300000000002</v>
       </c>
     </row>
-    <row r="548" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B548" s="2">
         <v>140</v>
       </c>
@@ -19300,7 +19287,7 @@
         <v>364.44400000000002</v>
       </c>
     </row>
-    <row r="549" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B549" s="2">
         <v>140</v>
       </c>
@@ -19329,7 +19316,7 @@
         <v>342.173</v>
       </c>
     </row>
-    <row r="550" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B550" s="2">
         <v>140</v>
       </c>
@@ -19358,7 +19345,7 @@
         <v>377.84399999999999</v>
       </c>
     </row>
-    <row r="551" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B551" s="2">
         <v>140</v>
       </c>
@@ -19387,7 +19374,7 @@
         <v>377.78399999999999</v>
       </c>
     </row>
-    <row r="552" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B552" s="2">
         <v>140</v>
       </c>
@@ -19416,7 +19403,7 @@
         <v>364.17899999999997</v>
       </c>
     </row>
-    <row r="553" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B553" s="2">
         <v>137.5</v>
       </c>
@@ -19445,7 +19432,7 @@
         <v>377.86399999999998</v>
       </c>
     </row>
-    <row r="554" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B554" s="2">
         <v>135</v>
       </c>
@@ -19474,7 +19461,7 @@
         <v>353.55599999999998</v>
       </c>
     </row>
-    <row r="555" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B555" s="2">
         <v>135</v>
       </c>
@@ -19503,7 +19490,7 @@
         <v>356.09199999999998</v>
       </c>
     </row>
-    <row r="556" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B556" s="2">
         <v>135</v>
       </c>
@@ -19532,7 +19519,7 @@
         <v>364.47800000000001</v>
       </c>
     </row>
-    <row r="557" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B557" s="2">
         <v>135</v>
       </c>
@@ -19561,7 +19548,7 @@
         <v>364.55500000000001</v>
       </c>
     </row>
-    <row r="558" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B558" s="2">
         <v>135</v>
       </c>
@@ -19590,7 +19577,7 @@
         <v>341.64100000000002</v>
       </c>
     </row>
-    <row r="559" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B559" s="2">
         <v>135</v>
       </c>
@@ -19619,7 +19606,7 @@
         <v>342.23</v>
       </c>
     </row>
-    <row r="560" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B560" s="2">
         <v>135</v>
       </c>
@@ -19648,7 +19635,7 @@
         <v>377.80900000000003</v>
       </c>
     </row>
-    <row r="561" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B561" s="2">
         <v>135</v>
       </c>
@@ -19677,7 +19664,7 @@
         <v>377.86900000000003</v>
       </c>
     </row>
-    <row r="562" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B562" s="2">
         <v>135</v>
       </c>
@@ -19706,7 +19693,7 @@
         <v>377.87</v>
       </c>
     </row>
-    <row r="563" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B563" s="2">
         <v>135</v>
       </c>
@@ -19735,7 +19722,7 @@
         <v>364.01299999999998</v>
       </c>
     </row>
-    <row r="564" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B564" s="2">
         <v>135</v>
       </c>
@@ -19764,7 +19751,7 @@
         <v>377.79700000000003</v>
       </c>
     </row>
-    <row r="565" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B565" s="2">
         <v>131.25</v>
       </c>
@@ -19793,7 +19780,7 @@
         <v>377.78800000000001</v>
       </c>
     </row>
-    <row r="566" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B566" s="2">
         <v>131.25</v>
       </c>
@@ -19822,7 +19809,7 @@
         <v>379.34800000000001</v>
       </c>
     </row>
-    <row r="567" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B567" s="2">
         <v>130</v>
       </c>
@@ -19851,7 +19838,7 @@
         <v>369.32299999999998</v>
       </c>
     </row>
-    <row r="568" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B568" s="2">
         <v>130</v>
       </c>
@@ -19880,7 +19867,7 @@
         <v>354.45499999999998</v>
       </c>
     </row>
-    <row r="569" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B569" s="2">
         <v>126</v>
       </c>
@@ -19909,7 +19896,7 @@
         <v>364.42200000000003</v>
       </c>
     </row>
-    <row r="570" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B570" s="2">
         <v>126</v>
       </c>
@@ -19938,7 +19925,7 @@
         <v>364.19099999999997</v>
       </c>
     </row>
-    <row r="571" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B571" s="2">
         <v>125</v>
       </c>
@@ -19967,7 +19954,7 @@
         <v>368.81299999999999</v>
       </c>
     </row>
-    <row r="572" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B572" s="2">
         <v>125</v>
       </c>
@@ -19996,7 +19983,7 @@
         <v>364.50099999999998</v>
       </c>
     </row>
-    <row r="573" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B573" s="2">
         <v>125</v>
       </c>
@@ -20025,7 +20012,7 @@
         <v>377.86799999999999</v>
       </c>
     </row>
-    <row r="574" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B574" s="2">
         <v>125</v>
       </c>
@@ -20054,7 +20041,7 @@
         <v>377.80799999999999</v>
       </c>
     </row>
-    <row r="575" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B575" s="2">
         <v>125</v>
       </c>
@@ -20083,7 +20070,7 @@
         <v>378.76600000000002</v>
       </c>
     </row>
-    <row r="576" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B576" s="2">
         <v>125</v>
       </c>
@@ -20112,7 +20099,7 @@
         <v>378.76600000000002</v>
       </c>
     </row>
-    <row r="577" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B577" s="2">
         <v>122.5</v>
       </c>
@@ -20141,7 +20128,7 @@
         <v>366.411</v>
       </c>
     </row>
-    <row r="578" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B578" s="2">
         <v>120</v>
       </c>
@@ -20170,7 +20157,7 @@
         <v>368.726</v>
       </c>
     </row>
-    <row r="579" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B579" s="2">
         <v>120</v>
       </c>
@@ -20199,7 +20186,7 @@
         <v>368.93</v>
       </c>
     </row>
-    <row r="580" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B580" s="2">
         <v>120</v>
       </c>
@@ -20228,7 +20215,7 @@
         <v>367.85599999999999</v>
       </c>
     </row>
-    <row r="581" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B581" s="2">
         <v>120</v>
       </c>
@@ -20257,7 +20244,7 @@
         <v>368.81599999999997</v>
       </c>
     </row>
-    <row r="582" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B582" s="2">
         <v>120</v>
       </c>
@@ -20286,7 +20273,7 @@
         <v>367.85199999999998</v>
       </c>
     </row>
-    <row r="583" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B583" s="2">
         <v>120</v>
       </c>
@@ -20315,7 +20302,7 @@
         <v>368.74400000000003</v>
       </c>
     </row>
-    <row r="584" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B584" s="2">
         <v>120</v>
       </c>
@@ -20344,7 +20331,7 @@
         <v>368.71800000000002</v>
       </c>
     </row>
-    <row r="585" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B585" s="2">
         <v>120</v>
       </c>
@@ -20373,7 +20360,7 @@
         <v>368.71800000000002</v>
       </c>
     </row>
-    <row r="586" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B586" s="2">
         <v>120</v>
       </c>
@@ -20402,7 +20389,7 @@
         <v>354.43099999999998</v>
       </c>
     </row>
-    <row r="587" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B587" s="2">
         <v>120</v>
       </c>
@@ -20431,7 +20418,7 @@
         <v>356.13</v>
       </c>
     </row>
-    <row r="588" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B588" s="2">
         <v>120</v>
       </c>
@@ -20460,7 +20447,7 @@
         <v>356.94799999999998</v>
       </c>
     </row>
-    <row r="589" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B589" s="2">
         <v>120</v>
       </c>
@@ -20489,7 +20476,7 @@
         <v>356.87299999999999</v>
       </c>
     </row>
-    <row r="590" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B590" s="2">
         <v>120</v>
       </c>
@@ -20518,7 +20505,7 @@
         <v>356.87700000000001</v>
       </c>
     </row>
-    <row r="591" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B591" s="2">
         <v>120</v>
       </c>
@@ -20547,7 +20534,7 @@
         <v>366.40300000000002</v>
       </c>
     </row>
-    <row r="592" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B592" s="2">
         <v>120</v>
       </c>
@@ -20576,7 +20563,7 @@
         <v>366.53399999999999</v>
       </c>
     </row>
-    <row r="593" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B593" s="2">
         <v>120</v>
       </c>
@@ -20605,7 +20592,7 @@
         <v>366.596</v>
       </c>
     </row>
-    <row r="594" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B594" s="2">
         <v>120</v>
       </c>
@@ -20634,7 +20621,7 @@
         <v>364.51</v>
       </c>
     </row>
-    <row r="595" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B595" s="2">
         <v>120</v>
       </c>
@@ -20663,7 +20650,7 @@
         <v>364.52800000000002</v>
       </c>
     </row>
-    <row r="596" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B596" s="2">
         <v>120</v>
       </c>
@@ -20692,7 +20679,7 @@
         <v>364.42500000000001</v>
       </c>
     </row>
-    <row r="597" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B597" s="2">
         <v>120</v>
       </c>
@@ -20721,7 +20708,7 @@
         <v>364.40800000000002</v>
       </c>
     </row>
-    <row r="598" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B598" s="2">
         <v>120</v>
       </c>
@@ -20750,7 +20737,7 @@
         <v>342.28199999999998</v>
       </c>
     </row>
-    <row r="599" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B599" s="2">
         <v>120</v>
       </c>
@@ -20779,7 +20766,7 @@
         <v>341.35</v>
       </c>
     </row>
-    <row r="600" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B600" s="2">
         <v>120</v>
       </c>
@@ -20808,7 +20795,7 @@
         <v>342.262</v>
       </c>
     </row>
-    <row r="601" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B601" s="2">
         <v>120</v>
       </c>
@@ -20837,7 +20824,7 @@
         <v>342.22399999999999</v>
       </c>
     </row>
-    <row r="602" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B602" s="2">
         <v>120</v>
       </c>
@@ -20866,7 +20853,7 @@
         <v>318.11</v>
       </c>
     </row>
-    <row r="603" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B603" s="2">
         <v>120</v>
       </c>
@@ -20895,7 +20882,7 @@
         <v>317.86200000000002</v>
       </c>
     </row>
-    <row r="604" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B604" s="2">
         <v>120</v>
       </c>
@@ -20924,7 +20911,7 @@
         <v>317.959</v>
       </c>
     </row>
-    <row r="605" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B605" s="2">
         <v>120</v>
       </c>
@@ -20953,7 +20940,7 @@
         <v>317.89800000000002</v>
       </c>
     </row>
-    <row r="606" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B606" s="2">
         <v>120</v>
       </c>
@@ -20982,7 +20969,7 @@
         <v>377.80700000000002</v>
       </c>
     </row>
-    <row r="607" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B607" s="2">
         <v>120</v>
       </c>
@@ -21011,7 +20998,7 @@
         <v>377.82499999999999</v>
       </c>
     </row>
-    <row r="608" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B608" s="2">
         <v>120</v>
       </c>
@@ -21040,7 +21027,7 @@
         <v>378.46</v>
       </c>
     </row>
-    <row r="609" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B609" s="2">
         <v>120</v>
       </c>
@@ -21069,7 +21056,7 @@
         <v>377.86700000000002</v>
       </c>
     </row>
-    <row r="610" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B610" s="2">
         <v>120</v>
       </c>
@@ -21098,7 +21085,7 @@
         <v>363.98200000000003</v>
       </c>
     </row>
-    <row r="611" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B611" s="2">
         <v>120</v>
       </c>
@@ -21127,7 +21114,7 @@
         <v>364.06799999999998</v>
       </c>
     </row>
-    <row r="612" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B612" s="2">
         <v>120</v>
       </c>
@@ -21156,7 +21143,7 @@
         <v>364.07600000000002</v>
       </c>
     </row>
-    <row r="613" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B613" s="2">
         <v>120</v>
       </c>
@@ -21185,7 +21172,7 @@
         <v>364.07600000000002</v>
       </c>
     </row>
-    <row r="614" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B614" s="2">
         <v>120</v>
       </c>
@@ -21214,7 +21201,7 @@
         <v>364.15499999999997</v>
       </c>
     </row>
-    <row r="615" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B615" s="2">
         <v>120</v>
       </c>
@@ -21243,7 +21230,7 @@
         <v>363.976</v>
       </c>
     </row>
-    <row r="616" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B616" s="2">
         <v>120</v>
       </c>
@@ -21272,7 +21259,7 @@
         <v>378.76400000000001</v>
       </c>
     </row>
-    <row r="617" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B617" s="2">
         <v>120</v>
       </c>
@@ -21301,7 +21288,7 @@
         <v>378.90899999999999</v>
       </c>
     </row>
-    <row r="618" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B618" s="2">
         <v>112.5</v>
       </c>
@@ -21330,7 +21317,7 @@
         <v>363.58600000000001</v>
       </c>
     </row>
-    <row r="619" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B619" s="2">
         <v>112.5</v>
       </c>
@@ -21359,7 +21346,7 @@
         <v>364.55500000000001</v>
       </c>
     </row>
-    <row r="620" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B620" s="2">
         <v>112.5</v>
       </c>
@@ -21388,7 +21375,7 @@
         <v>364.40899999999999</v>
       </c>
     </row>
-    <row r="621" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B621" s="2">
         <v>112.5</v>
       </c>
@@ -21417,7 +21404,7 @@
         <v>379.34800000000001</v>
       </c>
     </row>
-    <row r="622" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B622" s="2">
         <v>112.5</v>
       </c>
@@ -21446,7 +21433,7 @@
         <v>378.80599999999998</v>
       </c>
     </row>
-    <row r="623" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B623" s="2">
         <v>110</v>
       </c>
@@ -21475,7 +21462,7 @@
         <v>368.73899999999998</v>
       </c>
     </row>
-    <row r="624" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B624" s="2">
         <v>110</v>
       </c>
@@ -21504,7 +21491,7 @@
         <v>317.90499999999997</v>
       </c>
     </row>
-    <row r="625" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B625" s="2">
         <v>110</v>
       </c>
@@ -21533,7 +21520,7 @@
         <v>377.81599999999997</v>
       </c>
     </row>
-    <row r="626" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B626" s="2">
         <v>108</v>
       </c>
@@ -21562,7 +21549,7 @@
         <v>356.04700000000003</v>
       </c>
     </row>
-    <row r="627" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B627" s="2">
         <v>108</v>
       </c>
@@ -21591,7 +21578,7 @@
         <v>364.577</v>
       </c>
     </row>
-    <row r="628" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B628" s="2">
         <v>108</v>
       </c>
@@ -21620,7 +21607,7 @@
         <v>377.77100000000002</v>
       </c>
     </row>
-    <row r="629" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B629" s="2">
         <v>108</v>
       </c>
@@ -21649,7 +21636,7 @@
         <v>377.86099999999999</v>
       </c>
     </row>
-    <row r="630" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B630" s="2">
         <v>108</v>
       </c>
@@ -21678,7 +21665,7 @@
         <v>364.06400000000002</v>
       </c>
     </row>
-    <row r="631" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B631" s="2">
         <v>105</v>
       </c>
@@ -21707,7 +21694,7 @@
         <v>367.84899999999999</v>
       </c>
     </row>
-    <row r="632" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B632" s="2">
         <v>105</v>
       </c>
@@ -21736,7 +21723,7 @@
         <v>369.06599999999997</v>
       </c>
     </row>
-    <row r="633" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B633" s="2">
         <v>105</v>
       </c>
@@ -21765,7 +21752,7 @@
         <v>368.82</v>
       </c>
     </row>
-    <row r="634" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B634" s="2">
         <v>105</v>
       </c>
@@ -21794,7 +21781,7 @@
         <v>354.42500000000001</v>
       </c>
     </row>
-    <row r="635" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B635" s="2">
         <v>105</v>
       </c>
@@ -21823,7 +21810,7 @@
         <v>356.94099999999997</v>
       </c>
     </row>
-    <row r="636" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B636" s="2">
         <v>105</v>
       </c>
@@ -21852,7 +21839,7 @@
         <v>364.47500000000002</v>
       </c>
     </row>
-    <row r="637" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B637" s="2">
         <v>105</v>
       </c>
@@ -21881,7 +21868,7 @@
         <v>364.44299999999998</v>
       </c>
     </row>
-    <row r="638" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B638" s="2">
         <v>105</v>
       </c>
@@ -21910,7 +21897,7 @@
         <v>342.27100000000002</v>
       </c>
     </row>
-    <row r="639" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B639" s="2">
         <v>105</v>
       </c>
@@ -21939,7 +21926,7 @@
         <v>342.22300000000001</v>
       </c>
     </row>
-    <row r="640" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B640" s="2">
         <v>105</v>
       </c>
@@ -21968,7 +21955,7 @@
         <v>341.303</v>
       </c>
     </row>
-    <row r="641" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B641" s="2">
         <v>105</v>
       </c>
@@ -21997,7 +21984,7 @@
         <v>318.07799999999997</v>
       </c>
     </row>
-    <row r="642" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B642" s="2">
         <v>105</v>
       </c>
@@ -22026,7 +22013,7 @@
         <v>376.89499999999998</v>
       </c>
     </row>
-    <row r="643" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B643" s="2">
         <v>105</v>
       </c>
@@ -22055,7 +22042,7 @@
         <v>377.86500000000001</v>
       </c>
     </row>
-    <row r="644" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B644" s="2">
         <v>105</v>
       </c>
@@ -22084,7 +22071,7 @@
         <v>377.78300000000002</v>
       </c>
     </row>
-    <row r="645" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B645" s="2">
         <v>105</v>
       </c>
@@ -22113,7 +22100,7 @@
         <v>363.98599999999999</v>
       </c>
     </row>
-    <row r="646" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B646" s="2">
         <v>105</v>
       </c>
@@ -22142,7 +22129,7 @@
         <v>364.09699999999998</v>
       </c>
     </row>
-    <row r="647" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B647" s="2">
         <v>100</v>
       </c>
@@ -22171,7 +22158,7 @@
         <v>368.73399999999998</v>
       </c>
     </row>
-    <row r="648" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B648" s="2">
         <v>100</v>
       </c>
@@ -22200,7 +22187,7 @@
         <v>354.51600000000002</v>
       </c>
     </row>
-    <row r="649" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B649" s="2">
         <v>100</v>
       </c>
@@ -22229,7 +22216,7 @@
         <v>356.89</v>
       </c>
     </row>
-    <row r="650" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B650" s="2">
         <v>100</v>
       </c>
@@ -22258,7 +22245,7 @@
         <v>357.02499999999998</v>
       </c>
     </row>
-    <row r="651" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B651" s="2">
         <v>100</v>
       </c>
@@ -22287,7 +22274,7 @@
         <v>357.012</v>
       </c>
     </row>
-    <row r="652" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B652" s="2">
         <v>100</v>
       </c>
@@ -22316,7 +22303,7 @@
         <v>366.423</v>
       </c>
     </row>
-    <row r="653" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B653" s="2">
         <v>100</v>
       </c>
@@ -22345,7 +22332,7 @@
         <v>366.73399999999998</v>
       </c>
     </row>
-    <row r="654" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B654" s="2">
         <v>100</v>
       </c>
@@ -22374,7 +22361,7 @@
         <v>366.47699999999998</v>
       </c>
     </row>
-    <row r="655" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B655" s="2">
         <v>100</v>
       </c>
@@ -22403,7 +22390,7 @@
         <v>366.47</v>
       </c>
     </row>
-    <row r="656" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B656" s="2">
         <v>100</v>
       </c>
@@ -22432,7 +22419,7 @@
         <v>342.30200000000002</v>
       </c>
     </row>
-    <row r="657" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B657" s="2">
         <v>100</v>
       </c>
@@ -22461,7 +22448,7 @@
         <v>342.23099999999999</v>
       </c>
     </row>
-    <row r="658" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B658" s="2">
         <v>100</v>
       </c>
@@ -22490,7 +22477,7 @@
         <v>342.17500000000001</v>
       </c>
     </row>
-    <row r="659" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B659" s="2">
         <v>100</v>
       </c>
@@ -22519,7 +22506,7 @@
         <v>317.85300000000001</v>
       </c>
     </row>
-    <row r="660" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B660" s="2">
         <v>100</v>
       </c>
@@ -22548,7 +22535,7 @@
         <v>317.85300000000001</v>
       </c>
     </row>
-    <row r="661" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B661" s="2">
         <v>100</v>
       </c>
@@ -22577,7 +22564,7 @@
         <v>317.83600000000001</v>
       </c>
     </row>
-    <row r="662" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B662" s="2">
         <v>100</v>
       </c>
@@ -22606,7 +22593,7 @@
         <v>377.82600000000002</v>
       </c>
     </row>
-    <row r="663" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B663" s="2">
         <v>100</v>
       </c>
@@ -22635,7 +22622,7 @@
         <v>377.86599999999999</v>
       </c>
     </row>
-    <row r="664" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B664" s="2">
         <v>100</v>
       </c>
@@ -22664,7 +22651,7 @@
         <v>376.89800000000002</v>
       </c>
     </row>
-    <row r="665" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B665" s="2">
         <v>100</v>
       </c>
@@ -22693,7 +22680,7 @@
         <v>364.12799999999999</v>
       </c>
     </row>
-    <row r="666" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B666" s="2">
         <v>100</v>
       </c>
@@ -22722,7 +22709,7 @@
         <v>363.375</v>
       </c>
     </row>
-    <row r="667" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B667" s="2">
         <v>100</v>
       </c>
@@ -22751,7 +22738,7 @@
         <v>363.11500000000001</v>
       </c>
     </row>
-    <row r="668" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B668" s="2">
         <v>100</v>
       </c>
@@ -22780,7 +22767,7 @@
         <v>364.154</v>
       </c>
     </row>
-    <row r="669" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B669" s="2">
         <v>100</v>
       </c>
@@ -22809,7 +22796,7 @@
         <v>364.05500000000001</v>
       </c>
     </row>
-    <row r="670" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B670" s="2">
         <v>100</v>
       </c>
@@ -22838,7 +22825,7 @@
         <v>378.87799999999999</v>
       </c>
     </row>
-    <row r="671" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B671" s="2">
         <v>97.5</v>
       </c>
@@ -22867,7 +22854,7 @@
         <v>366.76499999999999</v>
       </c>
     </row>
-    <row r="672" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B672" s="2">
         <v>97.5</v>
       </c>
@@ -22896,7 +22883,7 @@
         <v>364.50400000000002</v>
       </c>
     </row>
-    <row r="673" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B673" s="2">
         <v>96</v>
       </c>
@@ -22925,7 +22912,7 @@
         <v>353.56400000000002</v>
       </c>
     </row>
-    <row r="674" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B674" s="2">
         <v>96</v>
       </c>
@@ -22954,7 +22941,7 @@
         <v>364.572</v>
       </c>
     </row>
-    <row r="675" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B675" s="2">
         <v>96</v>
       </c>
@@ -22983,7 +22970,7 @@
         <v>364.16</v>
       </c>
     </row>
-    <row r="676" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B676" s="2">
         <v>93.75</v>
       </c>
@@ -23012,7 +22999,7 @@
         <v>317.928</v>
       </c>
     </row>
-    <row r="677" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B677" s="2">
         <v>93.75</v>
       </c>
@@ -23041,7 +23028,7 @@
         <v>379.34800000000001</v>
       </c>
     </row>
-    <row r="678" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B678" s="2">
         <v>90</v>
       </c>
@@ -23070,7 +23057,7 @@
         <v>368.92200000000003</v>
       </c>
     </row>
-    <row r="679" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B679" s="2">
         <v>90</v>
       </c>
@@ -23099,7 +23086,7 @@
         <v>368.85199999999998</v>
       </c>
     </row>
-    <row r="680" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B680" s="2">
         <v>90</v>
       </c>
@@ -23128,7 +23115,7 @@
         <v>353.77300000000002</v>
       </c>
     </row>
-    <row r="681" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B681" s="2">
         <v>90</v>
       </c>
@@ -23157,7 +23144,7 @@
         <v>354.62799999999999</v>
       </c>
     </row>
-    <row r="682" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B682" s="2">
         <v>90</v>
       </c>
@@ -23186,7 +23173,7 @@
         <v>355.16199999999998</v>
       </c>
     </row>
-    <row r="683" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B683" s="2">
         <v>90</v>
       </c>
@@ -23215,7 +23202,7 @@
         <v>356.94</v>
       </c>
     </row>
-    <row r="684" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B684" s="2">
         <v>90</v>
       </c>
@@ -23244,7 +23231,7 @@
         <v>356.875</v>
       </c>
     </row>
-    <row r="685" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B685" s="2">
         <v>90</v>
       </c>
@@ -23273,7 +23260,7 @@
         <v>366.423</v>
       </c>
     </row>
-    <row r="686" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B686" s="2">
         <v>90</v>
       </c>
@@ -23302,7 +23289,7 @@
         <v>366.64499999999998</v>
       </c>
     </row>
-    <row r="687" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B687" s="2">
         <v>90</v>
       </c>
@@ -23331,7 +23318,7 @@
         <v>364.47300000000001</v>
       </c>
     </row>
-    <row r="688" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B688" s="2">
         <v>90</v>
       </c>
@@ -23360,7 +23347,7 @@
         <v>364.55099999999999</v>
       </c>
     </row>
-    <row r="689" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B689" s="2">
         <v>90</v>
       </c>
@@ -23389,7 +23376,7 @@
         <v>342.17700000000002</v>
       </c>
     </row>
-    <row r="690" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B690" s="2">
         <v>90</v>
       </c>
@@ -23418,7 +23405,7 @@
         <v>342.18</v>
       </c>
     </row>
-    <row r="691" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B691" s="2">
         <v>90</v>
       </c>
@@ -23447,7 +23434,7 @@
         <v>317.98700000000002</v>
       </c>
     </row>
-    <row r="692" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B692" s="2">
         <v>90</v>
       </c>
@@ -23476,7 +23463,7 @@
         <v>317.87200000000001</v>
       </c>
     </row>
-    <row r="693" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B693" s="2">
         <v>90</v>
       </c>
@@ -23505,7 +23492,7 @@
         <v>317.95600000000002</v>
       </c>
     </row>
-    <row r="694" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B694" s="2">
         <v>90</v>
       </c>
@@ -23534,7 +23521,7 @@
         <v>317.96600000000001</v>
       </c>
     </row>
-    <row r="695" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B695" s="2">
         <v>90</v>
       </c>
@@ -23563,7 +23550,7 @@
         <v>317.83300000000003</v>
       </c>
     </row>
-    <row r="696" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B696" s="2">
         <v>90</v>
       </c>
@@ -23592,7 +23579,7 @@
         <v>317.84800000000001</v>
       </c>
     </row>
-    <row r="697" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B697" s="2">
         <v>90</v>
       </c>
@@ -23621,7 +23608,7 @@
         <v>376.88600000000002</v>
       </c>
     </row>
-    <row r="698" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B698" s="2">
         <v>90</v>
       </c>
@@ -23650,7 +23637,7 @@
         <v>377.863</v>
       </c>
     </row>
-    <row r="699" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B699" s="2">
         <v>90</v>
       </c>
@@ -23679,7 +23666,7 @@
         <v>377.86700000000002</v>
       </c>
     </row>
-    <row r="700" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B700" s="2">
         <v>90</v>
       </c>
@@ -23708,7 +23695,7 @@
         <v>364.21899999999999</v>
       </c>
     </row>
-    <row r="701" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B701" s="2">
         <v>90</v>
       </c>
@@ -23737,7 +23724,7 @@
         <v>364.05799999999999</v>
       </c>
     </row>
-    <row r="702" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B702" s="2">
         <v>90</v>
       </c>
@@ -23766,7 +23753,7 @@
         <v>378.899</v>
       </c>
     </row>
-    <row r="703" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B703" s="2">
         <v>90</v>
       </c>
@@ -23795,7 +23782,7 @@
         <v>378.75900000000001</v>
       </c>
     </row>
-    <row r="704" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B704" s="2">
         <v>90</v>
       </c>
@@ -23824,7 +23811,7 @@
         <v>378.76100000000002</v>
       </c>
     </row>
-    <row r="705" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B705" s="2">
         <v>90</v>
       </c>
@@ -23853,7 +23840,7 @@
         <v>377.83199999999999</v>
       </c>
     </row>
-    <row r="706" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B706" s="2">
         <v>90</v>
       </c>
@@ -23882,7 +23869,7 @@
         <v>378.65600000000001</v>
       </c>
     </row>
-    <row r="707" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B707" s="2">
         <v>87.5</v>
       </c>
@@ -23911,7 +23898,7 @@
         <v>367.85</v>
       </c>
     </row>
-    <row r="708" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B708" s="2">
         <v>87.5</v>
       </c>
@@ -23940,7 +23927,7 @@
         <v>363.584</v>
       </c>
     </row>
-    <row r="709" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B709" s="2">
         <v>87.5</v>
       </c>
@@ -23969,7 +23956,7 @@
         <v>342.22399999999999</v>
       </c>
     </row>
-    <row r="710" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B710" s="2">
         <v>84</v>
       </c>
@@ -23998,7 +23985,7 @@
         <v>356.87599999999998</v>
       </c>
     </row>
-    <row r="711" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B711" s="2">
         <v>84</v>
       </c>
@@ -24027,7 +24014,7 @@
         <v>364.56700000000001</v>
       </c>
     </row>
-    <row r="712" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B712" s="2">
         <v>84</v>
       </c>
@@ -24056,7 +24043,7 @@
         <v>376.92200000000003</v>
       </c>
     </row>
-    <row r="713" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B713" s="2">
         <v>84</v>
       </c>
@@ -24085,7 +24072,7 @@
         <v>377.81</v>
       </c>
     </row>
-    <row r="714" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B714" s="2">
         <v>82.5</v>
       </c>
@@ -24114,7 +24101,7 @@
         <v>342.32100000000003</v>
       </c>
     </row>
-    <row r="715" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B715" s="2">
         <v>82.5</v>
       </c>
@@ -24143,7 +24130,7 @@
         <v>364.13799999999998</v>
       </c>
     </row>
-    <row r="716" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B716" s="2">
         <v>81</v>
       </c>
@@ -24172,7 +24159,7 @@
         <v>365.601</v>
       </c>
     </row>
-    <row r="717" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B717" s="2">
         <v>81</v>
       </c>
@@ -24201,7 +24188,7 @@
         <v>363.55900000000003</v>
       </c>
     </row>
-    <row r="718" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B718" s="2">
         <v>81</v>
       </c>
@@ -24230,7 +24217,7 @@
         <v>364.55</v>
       </c>
     </row>
-    <row r="719" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B719" s="2">
         <v>81</v>
       </c>
@@ -24259,7 +24246,7 @@
         <v>377.93</v>
       </c>
     </row>
-    <row r="720" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B720" s="2">
         <v>80</v>
       </c>
@@ -24288,7 +24275,7 @@
         <v>368.97500000000002</v>
       </c>
     </row>
-    <row r="721" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B721" s="2">
         <v>80</v>
       </c>
@@ -24317,7 +24304,7 @@
         <v>368.82100000000003</v>
       </c>
     </row>
-    <row r="722" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B722" s="2">
         <v>80</v>
       </c>
@@ -24346,7 +24333,7 @@
         <v>354.51400000000001</v>
       </c>
     </row>
-    <row r="723" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B723" s="2">
         <v>80</v>
       </c>
@@ -24375,7 +24362,7 @@
         <v>366.41199999999998</v>
       </c>
     </row>
-    <row r="724" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B724" s="2">
         <v>80</v>
       </c>
@@ -24404,7 +24391,7 @@
         <v>364.40600000000001</v>
       </c>
     </row>
-    <row r="725" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B725" s="2">
         <v>80</v>
       </c>
@@ -24433,7 +24420,7 @@
         <v>342.17899999999997</v>
       </c>
     </row>
-    <row r="726" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B726" s="2">
         <v>80</v>
       </c>
@@ -24462,7 +24449,7 @@
         <v>342.226</v>
       </c>
     </row>
-    <row r="727" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B727" s="2">
         <v>80</v>
       </c>
@@ -24491,7 +24478,7 @@
         <v>318.12200000000001</v>
       </c>
     </row>
-    <row r="728" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B728" s="2">
         <v>80</v>
       </c>
@@ -24520,7 +24507,7 @@
         <v>317.96600000000001</v>
       </c>
     </row>
-    <row r="729" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B729" s="2">
         <v>80</v>
       </c>
@@ -24549,7 +24536,7 @@
         <v>377.92099999999999</v>
       </c>
     </row>
-    <row r="730" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B730" s="2">
         <v>80</v>
       </c>
@@ -24578,7 +24565,7 @@
         <v>377.81200000000001</v>
       </c>
     </row>
-    <row r="731" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B731" s="2">
         <v>80</v>
       </c>
@@ -24607,7 +24594,7 @@
         <v>377.75900000000001</v>
       </c>
     </row>
-    <row r="732" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B732" s="2">
         <v>80</v>
       </c>
@@ -24636,7 +24623,7 @@
         <v>364.06700000000001</v>
       </c>
     </row>
-    <row r="733" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B733" s="2">
         <v>80</v>
       </c>
@@ -24665,7 +24652,7 @@
         <v>378.77800000000002</v>
       </c>
     </row>
-    <row r="734" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B734" s="2">
         <v>80</v>
       </c>
@@ -24694,7 +24681,7 @@
         <v>378.66399999999999</v>
       </c>
     </row>
-    <row r="735" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B735" s="2">
         <v>80</v>
       </c>
@@ -24723,7 +24710,7 @@
         <v>378.76</v>
       </c>
     </row>
-    <row r="736" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B736" s="2">
         <v>80</v>
       </c>
@@ -24752,7 +24739,7 @@
         <v>378.88499999999999</v>
       </c>
     </row>
-    <row r="737" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B737" s="2">
         <v>75</v>
       </c>
@@ -24781,7 +24768,7 @@
         <v>353.70800000000003</v>
       </c>
     </row>
-    <row r="738" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B738" s="2">
         <v>75</v>
       </c>
@@ -24810,7 +24797,7 @@
         <v>353.553</v>
       </c>
     </row>
-    <row r="739" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B739" s="2">
         <v>75</v>
       </c>
@@ -24839,7 +24826,7 @@
         <v>354.41500000000002</v>
       </c>
     </row>
-    <row r="740" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B740" s="2">
         <v>75</v>
       </c>
@@ -24868,7 +24855,7 @@
         <v>354.56</v>
       </c>
     </row>
-    <row r="741" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B741" s="2">
         <v>75</v>
       </c>
@@ -24897,7 +24884,7 @@
         <v>356.005</v>
       </c>
     </row>
-    <row r="742" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B742" s="2">
         <v>75</v>
       </c>
@@ -24926,7 +24913,7 @@
         <v>356.93299999999999</v>
       </c>
     </row>
-    <row r="743" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B743" s="2">
         <v>75</v>
       </c>
@@ -24955,7 +24942,7 @@
         <v>356.005</v>
       </c>
     </row>
-    <row r="744" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B744" s="2">
         <v>75</v>
       </c>
@@ -24984,7 +24971,7 @@
         <v>364.49900000000002</v>
       </c>
     </row>
-    <row r="745" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B745" s="2">
         <v>75</v>
       </c>
@@ -25013,7 +25000,7 @@
         <v>364.375</v>
       </c>
     </row>
-    <row r="746" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B746" s="2">
         <v>75</v>
       </c>
@@ -25042,7 +25029,7 @@
         <v>341.30200000000002</v>
       </c>
     </row>
-    <row r="747" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B747" s="2">
         <v>75</v>
       </c>
@@ -25071,7 +25058,7 @@
         <v>341.30099999999999</v>
       </c>
     </row>
-    <row r="748" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B748" s="2">
         <v>75</v>
       </c>
@@ -25100,7 +25087,7 @@
         <v>317.834</v>
       </c>
     </row>
-    <row r="749" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B749" s="2">
         <v>75</v>
       </c>
@@ -25129,7 +25116,7 @@
         <v>377.86200000000002</v>
       </c>
     </row>
-    <row r="750" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B750" s="2">
         <v>75</v>
       </c>
@@ -25158,7 +25145,7 @@
         <v>363.97500000000002</v>
       </c>
     </row>
-    <row r="751" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B751" s="2">
         <v>75</v>
       </c>
@@ -25187,7 +25174,7 @@
         <v>364.02800000000002</v>
       </c>
     </row>
-    <row r="752" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B752" s="2">
         <v>75</v>
       </c>
@@ -25216,7 +25203,7 @@
         <v>363.10599999999999</v>
       </c>
     </row>
-    <row r="753" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B753" s="2">
         <v>75</v>
       </c>
@@ -25245,7 +25232,7 @@
         <v>377.95400000000001</v>
       </c>
     </row>
-    <row r="754" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B754" s="2">
         <v>75</v>
       </c>
@@ -25274,7 +25261,7 @@
         <v>378.89299999999997</v>
       </c>
     </row>
-    <row r="755" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B755" s="2">
         <v>75</v>
       </c>
@@ -25303,7 +25290,7 @@
         <v>378.762</v>
       </c>
     </row>
-    <row r="756" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B756" s="2">
         <v>72</v>
       </c>
@@ -25332,7 +25319,7 @@
         <v>367.84500000000003</v>
       </c>
     </row>
-    <row r="757" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B757" s="2">
         <v>72</v>
       </c>
@@ -25361,7 +25348,7 @@
         <v>353.64</v>
       </c>
     </row>
-    <row r="758" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B758" s="2">
         <v>72</v>
       </c>
@@ -25390,7 +25377,7 @@
         <v>354.64</v>
       </c>
     </row>
-    <row r="759" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B759" s="2">
         <v>72</v>
       </c>
@@ -25419,7 +25406,7 @@
         <v>363.54599999999999</v>
       </c>
     </row>
-    <row r="760" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B760" s="2">
         <v>72</v>
       </c>
@@ -25448,7 +25435,7 @@
         <v>342.238</v>
       </c>
     </row>
-    <row r="761" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B761" s="2">
         <v>72</v>
       </c>
@@ -25477,7 +25464,7 @@
         <v>342.291</v>
       </c>
     </row>
-    <row r="762" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B762" s="2">
         <v>72</v>
       </c>
@@ -25506,7 +25493,7 @@
         <v>363.15600000000001</v>
       </c>
     </row>
-    <row r="763" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B763" s="2">
         <v>72</v>
       </c>
@@ -25535,7 +25522,7 @@
         <v>364.25400000000002</v>
       </c>
     </row>
-    <row r="764" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B764" s="2">
         <v>72</v>
       </c>
@@ -25564,7 +25551,7 @@
         <v>364.15899999999999</v>
       </c>
     </row>
-    <row r="765" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B765" s="2">
         <v>70</v>
       </c>
@@ -25593,7 +25580,7 @@
         <v>368.75200000000001</v>
       </c>
     </row>
-    <row r="766" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B766" s="2">
         <v>70</v>
       </c>
@@ -25622,7 +25609,7 @@
         <v>354.52800000000002</v>
       </c>
     </row>
-    <row r="767" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B767" s="2">
         <v>70</v>
       </c>
@@ -25651,7 +25638,7 @@
         <v>356.01499999999999</v>
       </c>
     </row>
-    <row r="768" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B768" s="2">
         <v>70</v>
       </c>
@@ -25680,7 +25667,7 @@
         <v>366.46499999999997</v>
       </c>
     </row>
-    <row r="769" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B769" s="2">
         <v>70</v>
       </c>
@@ -25709,7 +25696,7 @@
         <v>366.49200000000002</v>
       </c>
     </row>
-    <row r="770" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B770" s="2">
         <v>70</v>
       </c>
@@ -25738,7 +25725,7 @@
         <v>342.24</v>
       </c>
     </row>
-    <row r="771" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B771" s="2">
         <v>70</v>
       </c>
@@ -25767,7 +25754,7 @@
         <v>317.923</v>
       </c>
     </row>
-    <row r="772" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B772" s="2">
         <v>70</v>
       </c>
@@ -25796,7 +25783,7 @@
         <v>377.911</v>
       </c>
     </row>
-    <row r="773" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B773" s="2">
         <v>70</v>
       </c>
@@ -25825,7 +25812,7 @@
         <v>363.291</v>
       </c>
     </row>
-    <row r="774" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B774" s="2">
         <v>67.5</v>
       </c>
@@ -25854,7 +25841,7 @@
         <v>356.88499999999999</v>
       </c>
     </row>
-    <row r="775" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B775" s="2">
         <v>67.5</v>
       </c>
@@ -25883,7 +25870,7 @@
         <v>376.024</v>
       </c>
     </row>
-    <row r="776" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B776" s="2">
         <v>65</v>
       </c>
@@ -25912,7 +25899,7 @@
         <v>366.548</v>
       </c>
     </row>
-    <row r="777" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B777" s="2">
         <v>65</v>
       </c>
@@ -25941,7 +25928,7 @@
         <v>364.47</v>
       </c>
     </row>
-    <row r="778" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B778" s="2">
         <v>63</v>
       </c>
@@ -25970,7 +25957,7 @@
         <v>342.16500000000002</v>
       </c>
     </row>
-    <row r="779" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B779" s="2">
         <v>63</v>
       </c>
@@ -25999,7 +25986,7 @@
         <v>317.88799999999998</v>
       </c>
     </row>
-    <row r="780" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B780" s="2">
         <v>63</v>
       </c>
@@ -26028,7 +26015,7 @@
         <v>376.9</v>
       </c>
     </row>
-    <row r="781" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B781" s="2">
         <v>63</v>
       </c>
@@ -26057,7 +26044,7 @@
         <v>364.24900000000002</v>
       </c>
     </row>
-    <row r="782" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B782" s="2">
         <v>63</v>
       </c>
@@ -26086,7 +26073,7 @@
         <v>377.78300000000002</v>
       </c>
     </row>
-    <row r="783" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B783" s="2">
         <v>62.5</v>
       </c>
@@ -26115,7 +26102,7 @@
         <v>365.53800000000001</v>
       </c>
     </row>
-    <row r="784" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B784" s="2">
         <v>62.5</v>
       </c>
@@ -26144,7 +26131,7 @@
         <v>364.55200000000002</v>
       </c>
     </row>
-    <row r="785" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B785" s="2">
         <v>60</v>
       </c>
@@ -26173,7 +26160,7 @@
         <v>368.80500000000001</v>
       </c>
     </row>
-    <row r="786" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B786" s="2">
         <v>60</v>
       </c>
@@ -26202,7 +26189,7 @@
         <v>368.71</v>
       </c>
     </row>
-    <row r="787" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B787" s="2">
         <v>60</v>
       </c>
@@ -26231,7 +26218,7 @@
         <v>368.91500000000002</v>
       </c>
     </row>
-    <row r="788" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B788" s="2">
         <v>60</v>
       </c>
@@ -26260,7 +26247,7 @@
         <v>368.714</v>
       </c>
     </row>
-    <row r="789" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B789" s="2">
         <v>60</v>
       </c>
@@ -26289,7 +26276,7 @@
         <v>367.84199999999998</v>
       </c>
     </row>
-    <row r="790" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B790" s="2">
         <v>60</v>
       </c>
@@ -26318,7 +26305,7 @@
         <v>368.92</v>
       </c>
     </row>
-    <row r="791" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B791" s="2">
         <v>60</v>
       </c>
@@ -26347,7 +26334,7 @@
         <v>354.54500000000002</v>
       </c>
     </row>
-    <row r="792" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B792" s="2">
         <v>60</v>
       </c>
@@ -26376,7 +26363,7 @@
         <v>354.51900000000001</v>
       </c>
     </row>
-    <row r="793" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B793" s="2">
         <v>60</v>
       </c>
@@ -26405,7 +26392,7 @@
         <v>354.63200000000001</v>
       </c>
     </row>
-    <row r="794" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B794" s="2">
         <v>60</v>
       </c>
@@ -26434,7 +26421,7 @@
         <v>357.03800000000001</v>
       </c>
     </row>
-    <row r="795" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B795" s="2">
         <v>60</v>
       </c>
@@ -26463,7 +26450,7 @@
         <v>356.12900000000002</v>
       </c>
     </row>
-    <row r="796" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B796" s="2">
         <v>60</v>
       </c>
@@ -26492,7 +26479,7 @@
         <v>356.01799999999997</v>
       </c>
     </row>
-    <row r="797" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B797" s="2">
         <v>60</v>
       </c>
@@ -26521,7 +26508,7 @@
         <v>356.94</v>
       </c>
     </row>
-    <row r="798" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B798" s="2">
         <v>60</v>
       </c>
@@ -26550,7 +26537,7 @@
         <v>356.93099999999998</v>
       </c>
     </row>
-    <row r="799" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B799" s="2">
         <v>60</v>
       </c>
@@ -26579,7 +26566,7 @@
         <v>366.62200000000001</v>
       </c>
     </row>
-    <row r="800" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B800" s="2">
         <v>60</v>
       </c>
@@ -26608,7 +26595,7 @@
         <v>365.548</v>
       </c>
     </row>
-    <row r="801" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B801" s="2">
         <v>60</v>
       </c>
@@ -26637,7 +26624,7 @@
         <v>366.411</v>
       </c>
     </row>
-    <row r="802" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B802" s="2">
         <v>60</v>
       </c>
@@ -26666,7 +26653,7 @@
         <v>364.49</v>
       </c>
     </row>
-    <row r="803" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B803" s="2">
         <v>60</v>
       </c>
@@ -26695,7 +26682,7 @@
         <v>340.43700000000001</v>
       </c>
     </row>
-    <row r="804" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B804" s="2">
         <v>60</v>
       </c>
@@ -26724,7 +26711,7 @@
         <v>317.89400000000001</v>
       </c>
     </row>
-    <row r="805" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B805" s="2">
         <v>60</v>
       </c>
@@ -26753,7 +26740,7 @@
         <v>316.98</v>
       </c>
     </row>
-    <row r="806" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B806" s="2">
         <v>60</v>
       </c>
@@ -26782,7 +26769,7 @@
         <v>316.971</v>
       </c>
     </row>
-    <row r="807" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B807" s="2">
         <v>60</v>
       </c>
@@ -26811,7 +26798,7 @@
         <v>377.81099999999998</v>
       </c>
     </row>
-    <row r="808" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B808" s="2">
         <v>60</v>
       </c>
@@ -26840,7 +26827,7 @@
         <v>377.8</v>
       </c>
     </row>
-    <row r="809" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B809" s="2">
         <v>60</v>
       </c>
@@ -26869,7 +26856,7 @@
         <v>377.86500000000001</v>
       </c>
     </row>
-    <row r="810" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B810" s="2">
         <v>60</v>
       </c>
@@ -26898,7 +26885,7 @@
         <v>377.86</v>
       </c>
     </row>
-    <row r="811" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B811" s="2">
         <v>60</v>
       </c>
@@ -26927,7 +26914,7 @@
         <v>364.08499999999998</v>
       </c>
     </row>
-    <row r="812" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B812" s="2">
         <v>60</v>
       </c>
@@ -26956,7 +26943,7 @@
         <v>364.01100000000002</v>
       </c>
     </row>
-    <row r="813" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B813" s="2">
         <v>60</v>
       </c>
@@ -26985,7 +26972,7 @@
         <v>363.96899999999999</v>
       </c>
     </row>
-    <row r="814" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B814" s="2">
         <v>60</v>
       </c>
@@ -27014,7 +27001,7 @@
         <v>378.9</v>
       </c>
     </row>
-    <row r="815" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B815" s="2">
         <v>60</v>
       </c>
@@ -27043,7 +27030,7 @@
         <v>378.755</v>
       </c>
     </row>
-    <row r="816" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B816" s="2">
         <v>60</v>
       </c>
@@ -27072,7 +27059,7 @@
         <v>378.654</v>
       </c>
     </row>
-    <row r="817" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B817" s="2">
         <v>60</v>
       </c>
@@ -27101,7 +27088,7 @@
         <v>378.755</v>
       </c>
     </row>
-    <row r="818" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B818" s="2">
         <v>56.25</v>
       </c>
@@ -27130,7 +27117,7 @@
         <v>354.56</v>
       </c>
     </row>
-    <row r="819" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B819" s="2">
         <v>56.25</v>
       </c>
@@ -27159,7 +27146,7 @@
         <v>379.34800000000001</v>
       </c>
     </row>
-    <row r="820" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B820" s="2">
         <v>55</v>
       </c>
@@ -27188,7 +27175,7 @@
         <v>368.88299999999998</v>
       </c>
     </row>
-    <row r="821" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B821" s="2">
         <v>55</v>
       </c>
@@ -27217,7 +27204,7 @@
         <v>377.82100000000003</v>
       </c>
     </row>
-    <row r="822" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B822" s="2">
         <v>54</v>
       </c>
@@ -27246,7 +27233,7 @@
         <v>364.548</v>
       </c>
     </row>
-    <row r="823" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B823" s="2">
         <v>54</v>
       </c>
@@ -27275,7 +27262,7 @@
         <v>341.30900000000003</v>
       </c>
     </row>
-    <row r="824" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B824" s="2">
         <v>54</v>
       </c>
@@ -27304,7 +27291,7 @@
         <v>316.98500000000001</v>
       </c>
     </row>
-    <row r="825" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B825" s="2">
         <v>54</v>
       </c>
@@ -27333,7 +27320,7 @@
         <v>377.928</v>
       </c>
     </row>
-    <row r="826" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B826" s="2">
         <v>54</v>
       </c>
@@ -27362,7 +27349,7 @@
         <v>364.245</v>
       </c>
     </row>
-    <row r="827" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B827" s="2">
         <v>52.5</v>
       </c>
@@ -27391,7 +27378,7 @@
         <v>368.815</v>
       </c>
     </row>
-    <row r="828" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B828" s="2">
         <v>52.5</v>
       </c>
@@ -27420,7 +27407,7 @@
         <v>353.70699999999999</v>
       </c>
     </row>
-    <row r="829" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B829" s="2">
         <v>52.5</v>
       </c>
@@ -27449,7 +27436,7 @@
         <v>342.22300000000001</v>
       </c>
     </row>
-    <row r="830" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B830" s="2">
         <v>52.5</v>
       </c>
@@ -27478,7 +27465,7 @@
         <v>316.97699999999998</v>
       </c>
     </row>
-    <row r="831" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B831" s="2">
         <v>50</v>
       </c>
@@ -27507,7 +27494,7 @@
         <v>368.80700000000002</v>
       </c>
     </row>
-    <row r="832" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B832" s="2">
         <v>50</v>
       </c>
@@ -27536,7 +27523,7 @@
         <v>354.50700000000001</v>
       </c>
     </row>
-    <row r="833" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B833" s="2">
         <v>50</v>
       </c>
@@ -27565,7 +27552,7 @@
         <v>354.536</v>
       </c>
     </row>
-    <row r="834" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B834" s="2">
         <v>50</v>
       </c>
@@ -27594,7 +27581,7 @@
         <v>356.04300000000001</v>
       </c>
     </row>
-    <row r="835" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B835" s="2">
         <v>50</v>
       </c>
@@ -27623,7 +27610,7 @@
         <v>356.86799999999999</v>
       </c>
     </row>
-    <row r="836" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B836" s="2">
         <v>50</v>
       </c>
@@ -27652,7 +27639,7 @@
         <v>357.00900000000001</v>
       </c>
     </row>
-    <row r="837" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B837" s="2">
         <v>50</v>
       </c>
@@ -27681,7 +27668,7 @@
         <v>366.61399999999998</v>
       </c>
     </row>
-    <row r="838" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B838" s="2">
         <v>50</v>
       </c>
@@ -27710,7 +27697,7 @@
         <v>366.60599999999999</v>
       </c>
     </row>
-    <row r="839" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B839" s="2">
         <v>50</v>
       </c>
@@ -27739,7 +27726,7 @@
         <v>366.47500000000002</v>
       </c>
     </row>
-    <row r="840" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B840" s="2">
         <v>50</v>
       </c>
@@ -27768,7 +27755,7 @@
         <v>364.55099999999999</v>
       </c>
     </row>
-    <row r="841" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B841" s="2">
         <v>50</v>
       </c>
@@ -27797,7 +27784,7 @@
         <v>364.55099999999999</v>
       </c>
     </row>
-    <row r="842" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B842" s="2">
         <v>50</v>
       </c>
@@ -27826,7 +27813,7 @@
         <v>341.41399999999999</v>
       </c>
     </row>
-    <row r="843" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B843" s="2">
         <v>50</v>
       </c>
@@ -27855,7 +27842,7 @@
         <v>317.851</v>
       </c>
     </row>
-    <row r="844" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B844" s="2">
         <v>50</v>
       </c>
@@ -27884,7 +27871,7 @@
         <v>317.851</v>
       </c>
     </row>
-    <row r="845" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B845" s="2">
         <v>50</v>
       </c>
@@ -27913,7 +27900,7 @@
         <v>318.11700000000002</v>
       </c>
     </row>
-    <row r="846" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B846" s="2">
         <v>50</v>
       </c>
@@ -27942,7 +27929,7 @@
         <v>377.76499999999999</v>
       </c>
     </row>
-    <row r="847" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B847" s="2">
         <v>50</v>
       </c>
@@ -27971,7 +27958,7 @@
         <v>364.04700000000003</v>
       </c>
     </row>
-    <row r="848" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B848" s="2">
         <v>50</v>
       </c>
@@ -28000,7 +27987,7 @@
         <v>363.12599999999998</v>
       </c>
     </row>
-    <row r="849" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B849" s="2">
         <v>50</v>
       </c>
@@ -28029,7 +28016,7 @@
         <v>378.74</v>
       </c>
     </row>
-    <row r="850" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B850" s="2">
         <v>48</v>
       </c>
@@ -28058,7 +28045,7 @@
         <v>354.62900000000002</v>
       </c>
     </row>
-    <row r="851" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B851" s="2">
         <v>48</v>
       </c>
@@ -28087,7 +28074,7 @@
         <v>364.553</v>
       </c>
     </row>
-    <row r="852" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B852" s="2">
         <v>48</v>
       </c>
@@ -28116,7 +28103,7 @@
         <v>376.90899999999999</v>
       </c>
     </row>
-    <row r="853" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B853" s="2">
         <v>45</v>
       </c>
@@ -28145,7 +28132,7 @@
         <v>368.74099999999999</v>
       </c>
     </row>
-    <row r="854" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B854" s="2">
         <v>45</v>
       </c>
@@ -28174,7 +28161,7 @@
         <v>368.8</v>
       </c>
     </row>
-    <row r="855" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B855" s="2">
         <v>45</v>
       </c>
@@ -28203,7 +28190,7 @@
         <v>353.63900000000001</v>
       </c>
     </row>
-    <row r="856" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B856" s="2">
         <v>45</v>
       </c>
@@ -28232,7 +28219,7 @@
         <v>354.62299999999999</v>
       </c>
     </row>
-    <row r="857" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B857" s="2">
         <v>45</v>
       </c>
@@ -28261,7 +28248,7 @@
         <v>366.459</v>
       </c>
     </row>
-    <row r="858" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B858" s="2">
         <v>45</v>
       </c>
@@ -28290,7 +28277,7 @@
         <v>366.392</v>
       </c>
     </row>
-    <row r="859" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B859" s="2">
         <v>45</v>
       </c>
@@ -28319,7 +28306,7 @@
         <v>364.40699999999998</v>
       </c>
     </row>
-    <row r="860" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B860" s="2">
         <v>45</v>
       </c>
@@ -28348,7 +28335,7 @@
         <v>341.29500000000002</v>
       </c>
     </row>
-    <row r="861" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B861" s="2">
         <v>45</v>
       </c>
@@ -28377,7 +28364,7 @@
         <v>341.29500000000002</v>
       </c>
     </row>
-    <row r="862" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B862" s="2">
         <v>45</v>
       </c>
@@ -28406,7 +28393,7 @@
         <v>316.99799999999999</v>
       </c>
     </row>
-    <row r="863" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B863" s="2">
         <v>45</v>
       </c>
@@ -28435,7 +28422,7 @@
         <v>376.899</v>
       </c>
     </row>
-    <row r="864" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B864" s="2">
         <v>45</v>
       </c>
@@ -28464,7 +28451,7 @@
         <v>364.11599999999999</v>
       </c>
     </row>
-    <row r="865" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B865" s="2">
         <v>45</v>
       </c>
@@ -28493,7 +28480,7 @@
         <v>364.24099999999999</v>
       </c>
     </row>
-    <row r="866" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B866" s="2">
         <v>45</v>
       </c>
@@ -28522,7 +28509,7 @@
         <v>377.78100000000001</v>
       </c>
     </row>
-    <row r="867" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B867" s="2">
         <v>45</v>
       </c>
@@ -28551,7 +28538,7 @@
         <v>377.779</v>
       </c>
     </row>
-    <row r="868" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B868" s="2">
         <v>42</v>
       </c>
@@ -28580,7 +28567,7 @@
         <v>368.8</v>
       </c>
     </row>
-    <row r="869" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B869" s="2">
         <v>40</v>
       </c>
@@ -28609,7 +28596,7 @@
         <v>368.803</v>
       </c>
     </row>
-    <row r="870" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B870" s="2">
         <v>40</v>
       </c>
@@ -28638,7 +28625,7 @@
         <v>356.94400000000002</v>
       </c>
     </row>
-    <row r="871" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B871" s="2">
         <v>40</v>
       </c>
@@ -28667,7 +28654,7 @@
         <v>356.87900000000002</v>
       </c>
     </row>
-    <row r="872" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B872" s="2">
         <v>40</v>
       </c>
@@ -28696,7 +28683,7 @@
         <v>357.00599999999997</v>
       </c>
     </row>
-    <row r="873" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B873" s="2">
         <v>40</v>
       </c>
@@ -28725,7 +28712,7 @@
         <v>356.93200000000002</v>
       </c>
     </row>
-    <row r="874" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B874" s="2">
         <v>40</v>
       </c>
@@ -28754,7 +28741,7 @@
         <v>366.39800000000002</v>
       </c>
     </row>
-    <row r="875" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B875" s="2">
         <v>40</v>
       </c>
@@ -28783,7 +28770,7 @@
         <v>366.452</v>
       </c>
     </row>
-    <row r="876" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B876" s="2">
         <v>40</v>
       </c>
@@ -28812,7 +28799,7 @@
         <v>366.53</v>
       </c>
     </row>
-    <row r="877" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B877" s="2">
         <v>40</v>
       </c>
@@ -28841,7 +28828,7 @@
         <v>364.42200000000003</v>
       </c>
     </row>
-    <row r="878" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B878" s="2">
         <v>40</v>
       </c>
@@ -28870,7 +28857,7 @@
         <v>363.553</v>
       </c>
     </row>
-    <row r="879" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B879" s="2">
         <v>40</v>
       </c>
@@ -28899,7 +28886,7 @@
         <v>342.21499999999997</v>
       </c>
     </row>
-    <row r="880" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B880" s="2">
         <v>40</v>
       </c>
@@ -28928,7 +28915,7 @@
         <v>341.39100000000002</v>
       </c>
     </row>
-    <row r="881" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B881" s="2">
         <v>40</v>
       </c>
@@ -28957,7 +28944,7 @@
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="882" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B882" s="2">
         <v>40</v>
       </c>
@@ -28986,7 +28973,7 @@
         <v>377.88200000000001</v>
       </c>
     </row>
-    <row r="883" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B883" s="2">
         <v>40</v>
       </c>
@@ -29015,7 +29002,7 @@
         <v>377.74299999999999</v>
       </c>
     </row>
-    <row r="884" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B884" s="2">
         <v>40</v>
       </c>
@@ -29044,7 +29031,7 @@
         <v>364.065</v>
       </c>
     </row>
-    <row r="885" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B885" s="2">
         <v>40</v>
       </c>
@@ -29073,7 +29060,7 @@
         <v>364.15100000000001</v>
       </c>
     </row>
-    <row r="886" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B886" s="2">
         <v>37.5</v>
       </c>
@@ -29102,7 +29089,7 @@
         <v>353.70600000000002</v>
       </c>
     </row>
-    <row r="887" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B887" s="2">
         <v>37.5</v>
       </c>
@@ -29131,7 +29118,7 @@
         <v>353.54899999999998</v>
       </c>
     </row>
-    <row r="888" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B888" s="2">
         <v>37.5</v>
       </c>
@@ -29160,7 +29147,7 @@
         <v>342.21699999999998</v>
       </c>
     </row>
-    <row r="889" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B889" s="2">
         <v>37.5</v>
       </c>
@@ -29189,7 +29176,7 @@
         <v>377.86099999999999</v>
       </c>
     </row>
-    <row r="890" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B890" s="2">
         <v>37.5</v>
       </c>
@@ -29218,7 +29205,7 @@
         <v>363.16500000000002</v>
       </c>
     </row>
-    <row r="891" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B891" s="2">
         <v>37.5</v>
       </c>
@@ -29247,7 +29234,7 @@
         <v>379.34800000000001</v>
       </c>
     </row>
-    <row r="892" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B892" s="2">
         <v>36</v>
       </c>
@@ -29276,7 +29263,7 @@
         <v>368.81</v>
       </c>
     </row>
-    <row r="893" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B893" s="2">
         <v>36</v>
       </c>
@@ -29305,7 +29292,7 @@
         <v>352.68099999999998</v>
       </c>
     </row>
-    <row r="894" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B894" s="2">
         <v>36</v>
       </c>
@@ -29334,7 +29321,7 @@
         <v>354.62200000000001</v>
       </c>
     </row>
-    <row r="895" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B895" s="2">
         <v>36</v>
       </c>
@@ -29363,7 +29350,7 @@
         <v>356.00400000000002</v>
       </c>
     </row>
-    <row r="896" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B896" s="2">
         <v>36</v>
       </c>
@@ -29392,7 +29379,7 @@
         <v>316.11099999999999</v>
       </c>
     </row>
-    <row r="897" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B897" s="2">
         <v>36</v>
       </c>
@@ -29421,7 +29408,7 @@
         <v>317.95100000000002</v>
       </c>
     </row>
-    <row r="898" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B898" s="2">
         <v>36</v>
       </c>
@@ -29450,7 +29437,7 @@
         <v>364.13400000000001</v>
       </c>
     </row>
-    <row r="899" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B899" s="2">
         <v>36</v>
       </c>
@@ -29479,7 +29466,7 @@
         <v>377.88400000000001</v>
       </c>
     </row>
-    <row r="900" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B900" s="2">
         <v>36</v>
       </c>
@@ -29508,7 +29495,7 @@
         <v>377.77699999999999</v>
       </c>
     </row>
-    <row r="901" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B901" s="2">
         <v>35</v>
       </c>
@@ -29537,7 +29524,7 @@
         <v>368.84399999999999</v>
       </c>
     </row>
-    <row r="902" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B902" s="2">
         <v>35</v>
       </c>
@@ -29566,7 +29553,7 @@
         <v>353.55900000000003</v>
       </c>
     </row>
-    <row r="903" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B903" s="2">
         <v>35</v>
       </c>
@@ -29595,7 +29582,7 @@
         <v>354.55399999999997</v>
       </c>
     </row>
-    <row r="904" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B904" s="2">
         <v>35</v>
       </c>
@@ -29624,7 +29611,7 @@
         <v>364.09500000000003</v>
       </c>
     </row>
-    <row r="905" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B905" s="2">
         <v>35</v>
       </c>
@@ -29653,7 +29640,7 @@
         <v>378.69200000000001</v>
       </c>
     </row>
-    <row r="906" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B906" s="2">
         <v>32.5</v>
       </c>
@@ -29682,7 +29669,7 @@
         <v>355.04700000000003</v>
       </c>
     </row>
-    <row r="907" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B907" s="2">
         <v>32.5</v>
       </c>
@@ -29711,7 +29698,7 @@
         <v>366.54700000000003</v>
       </c>
     </row>
-    <row r="908" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B908" s="2">
         <v>30</v>
       </c>
@@ -29740,7 +29727,7 @@
         <v>367.858</v>
       </c>
     </row>
-    <row r="909" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B909" s="2">
         <v>30</v>
       </c>
@@ -29769,7 +29756,7 @@
         <v>354.50900000000001</v>
       </c>
     </row>
-    <row r="910" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B910" s="2">
         <v>30</v>
       </c>
@@ -29798,7 +29785,7 @@
         <v>356.97300000000001</v>
       </c>
     </row>
-    <row r="911" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="911" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B911" s="2">
         <v>30</v>
       </c>
@@ -29827,7 +29814,7 @@
         <v>356.93700000000001</v>
       </c>
     </row>
-    <row r="912" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B912" s="2">
         <v>30</v>
       </c>
@@ -29856,7 +29843,7 @@
         <v>356.87099999999998</v>
       </c>
     </row>
-    <row r="913" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="913" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B913" s="2">
         <v>30</v>
       </c>
@@ -29885,7 +29872,7 @@
         <v>366.447</v>
       </c>
     </row>
-    <row r="914" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B914" s="2">
         <v>30</v>
       </c>
@@ -29914,7 +29901,7 @@
         <v>363.62200000000001</v>
       </c>
     </row>
-    <row r="915" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="915" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B915" s="2">
         <v>30</v>
       </c>
@@ -29943,7 +29930,7 @@
         <v>363.53300000000002</v>
       </c>
     </row>
-    <row r="916" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="916" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B916" s="2">
         <v>30</v>
       </c>
@@ -29972,7 +29959,7 @@
         <v>364.54500000000002</v>
       </c>
     </row>
-    <row r="917" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="917" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B917" s="2">
         <v>30</v>
       </c>
@@ -30001,7 +29988,7 @@
         <v>342.23099999999999</v>
       </c>
     </row>
-    <row r="918" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="918" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B918" s="2">
         <v>30</v>
       </c>
@@ -30030,7 +30017,7 @@
         <v>342.279</v>
       </c>
     </row>
-    <row r="919" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="919" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B919" s="2">
         <v>30</v>
       </c>
@@ -30059,7 +30046,7 @@
         <v>342.21600000000001</v>
       </c>
     </row>
-    <row r="920" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="920" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B920" s="2">
         <v>30</v>
       </c>
@@ -30088,7 +30075,7 @@
         <v>317.95499999999998</v>
       </c>
     </row>
-    <row r="921" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="921" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B921" s="2">
         <v>30</v>
       </c>
@@ -30117,7 +30104,7 @@
         <v>318.053</v>
       </c>
     </row>
-    <row r="922" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="922" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B922" s="2">
         <v>30</v>
       </c>
@@ -30146,7 +30133,7 @@
         <v>316.99700000000001</v>
       </c>
     </row>
-    <row r="923" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="923" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B923" s="2">
         <v>30</v>
       </c>
@@ -30175,7 +30162,7 @@
         <v>317.89299999999997</v>
       </c>
     </row>
-    <row r="924" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="924" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B924" s="2">
         <v>30</v>
       </c>
@@ -30204,7 +30191,7 @@
         <v>317.95</v>
       </c>
     </row>
-    <row r="925" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="925" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B925" s="2">
         <v>30</v>
       </c>
@@ -30233,7 +30220,7 @@
         <v>318.02300000000002</v>
       </c>
     </row>
-    <row r="926" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="926" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B926" s="2">
         <v>30</v>
       </c>
@@ -30262,7 +30249,7 @@
         <v>377.86399999999998</v>
       </c>
     </row>
-    <row r="927" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="927" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B927" s="2">
         <v>30</v>
       </c>
@@ -30291,7 +30278,7 @@
         <v>364.05500000000001</v>
       </c>
     </row>
-    <row r="928" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="928" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B928" s="2">
         <v>30</v>
       </c>
@@ -30320,7 +30307,7 @@
         <v>378.88200000000001</v>
       </c>
     </row>
-    <row r="929" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="929" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B929" s="2">
         <v>30</v>
       </c>
@@ -30349,7 +30336,7 @@
         <v>378.75099999999998</v>
       </c>
     </row>
-    <row r="930" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="930" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B930" s="2">
         <v>30</v>
       </c>
@@ -30378,7 +30365,7 @@
         <v>378.755</v>
       </c>
     </row>
-    <row r="931" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="931" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B931" s="2">
         <v>27.5</v>
       </c>
@@ -30407,7 +30394,7 @@
         <v>342.32</v>
       </c>
     </row>
-    <row r="932" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="932" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B932" s="2">
         <v>27</v>
       </c>
@@ -30436,7 +30423,7 @@
         <v>365.56099999999998</v>
       </c>
     </row>
-    <row r="933" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="933" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B933" s="2">
         <v>27</v>
       </c>
@@ -30465,7 +30452,7 @@
         <v>340.42899999999997</v>
       </c>
     </row>
-    <row r="934" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B934" s="2">
         <v>27</v>
       </c>
@@ -30494,7 +30481,7 @@
         <v>373.42700000000002</v>
       </c>
     </row>
-    <row r="935" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="935" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B935" s="2">
         <v>27</v>
       </c>
@@ -30523,7 +30510,7 @@
         <v>364.06900000000002</v>
       </c>
     </row>
-    <row r="936" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="936" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B936" s="2">
         <v>27</v>
       </c>
@@ -30552,7 +30539,7 @@
         <v>363.101</v>
       </c>
     </row>
-    <row r="937" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="937" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B937" s="2">
         <v>27</v>
       </c>
@@ -30581,7 +30568,7 @@
         <v>363.15199999999999</v>
       </c>
     </row>
-    <row r="938" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="938" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B938" s="2">
         <v>25</v>
       </c>
@@ -30610,7 +30597,7 @@
         <v>356.041</v>
       </c>
     </row>
-    <row r="939" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="939" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B939" s="2">
         <v>25</v>
       </c>
@@ -30639,7 +30626,7 @@
         <v>356.00400000000002</v>
       </c>
     </row>
-    <row r="940" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="940" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B940" s="2">
         <v>25</v>
       </c>
@@ -30668,7 +30655,7 @@
         <v>366.45400000000001</v>
       </c>
     </row>
-    <row r="941" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="941" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B941" s="2">
         <v>25</v>
       </c>
@@ -30697,7 +30684,7 @@
         <v>364.464</v>
       </c>
     </row>
-    <row r="942" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="942" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B942" s="2">
         <v>25</v>
       </c>
@@ -30726,7 +30713,7 @@
         <v>377.79899999999998</v>
       </c>
     </row>
-    <row r="943" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="943" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B943" s="2">
         <v>25</v>
       </c>
@@ -30755,7 +30742,7 @@
         <v>378.64600000000002</v>
       </c>
     </row>
-    <row r="944" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B944" s="2">
         <v>24</v>
       </c>
@@ -30784,7 +30771,7 @@
         <v>368.79500000000002</v>
       </c>
     </row>
-    <row r="945" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="945" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B945" s="2">
         <v>24</v>
       </c>
@@ -30813,7 +30800,7 @@
         <v>354.61900000000003</v>
       </c>
     </row>
-    <row r="946" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="946" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B946" s="2">
         <v>24</v>
       </c>
@@ -30842,7 +30829,7 @@
         <v>340.428</v>
       </c>
     </row>
-    <row r="947" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="947" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B947" s="2">
         <v>24</v>
       </c>
@@ -30871,7 +30858,7 @@
         <v>318.02199999999999</v>
       </c>
     </row>
-    <row r="948" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="948" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B948" s="2">
         <v>24</v>
       </c>
@@ -30900,7 +30887,7 @@
         <v>364.12900000000002</v>
       </c>
     </row>
-    <row r="949" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="949" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B949" s="2">
         <v>22.5</v>
       </c>
@@ -30929,7 +30916,7 @@
         <v>376.92200000000003</v>
       </c>
     </row>
-    <row r="950" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="950" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B950" s="2">
         <v>21</v>
       </c>
@@ -30958,7 +30945,7 @@
         <v>354.24799999999999</v>
       </c>
     </row>
-    <row r="951" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="951" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B951" s="2">
         <v>21</v>
       </c>
@@ -30987,7 +30974,7 @@
         <v>318.02100000000002</v>
       </c>
     </row>
-    <row r="952" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="952" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B952" s="2">
         <v>21</v>
       </c>
@@ -31016,7 +31003,7 @@
         <v>378.63299999999998</v>
       </c>
     </row>
-    <row r="953" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="953" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B953" s="2">
         <v>20</v>
       </c>
@@ -31045,7 +31032,7 @@
         <v>354.40699999999998</v>
       </c>
     </row>
-    <row r="954" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="954" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B954" s="2">
         <v>20</v>
       </c>
@@ -31074,7 +31061,7 @@
         <v>354.50700000000001</v>
       </c>
     </row>
-    <row r="955" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="955" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B955" s="2">
         <v>20</v>
       </c>
@@ -31103,7 +31090,7 @@
         <v>356.005</v>
       </c>
     </row>
-    <row r="956" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="956" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B956" s="2">
         <v>20</v>
       </c>
@@ -31132,7 +31119,7 @@
         <v>356.92399999999998</v>
       </c>
     </row>
-    <row r="957" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="957" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B957" s="2">
         <v>20</v>
       </c>
@@ -31161,7 +31148,7 @@
         <v>342.22300000000001</v>
       </c>
     </row>
-    <row r="958" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="958" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B958" s="2">
         <v>20</v>
       </c>
@@ -31190,7 +31177,7 @@
         <v>318.04000000000002</v>
       </c>
     </row>
-    <row r="959" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="959" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B959" s="2">
         <v>20</v>
       </c>
@@ -31219,7 +31206,7 @@
         <v>317.964</v>
       </c>
     </row>
-    <row r="960" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="960" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B960" s="2">
         <v>20</v>
       </c>
@@ -31248,7 +31235,7 @@
         <v>363.98599999999999</v>
       </c>
     </row>
-    <row r="961" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="961" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B961" s="2">
         <v>18.75</v>
       </c>
@@ -31277,7 +31264,7 @@
         <v>356.90800000000002</v>
       </c>
     </row>
-    <row r="962" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="962" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B962" s="2">
         <v>18.75</v>
       </c>
@@ -31306,7 +31293,7 @@
         <v>379.34699999999998</v>
       </c>
     </row>
-    <row r="963" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="963" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B963" s="2">
         <v>18</v>
       </c>
@@ -31335,7 +31322,7 @@
         <v>353.53699999999998</v>
       </c>
     </row>
-    <row r="964" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="964" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B964" s="2">
         <v>18</v>
       </c>
@@ -31364,7 +31351,7 @@
         <v>354.24700000000001</v>
       </c>
     </row>
-    <row r="965" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="965" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B965" s="2">
         <v>18</v>
       </c>
@@ -31393,7 +31380,7 @@
         <v>355.13900000000001</v>
       </c>
     </row>
-    <row r="966" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="966" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B966" s="2">
         <v>18</v>
       </c>
@@ -31422,7 +31409,7 @@
         <v>364.54500000000002</v>
       </c>
     </row>
-    <row r="967" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="967" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B967" s="2">
         <v>18</v>
       </c>
@@ -31451,7 +31438,7 @@
         <v>377.92500000000001</v>
       </c>
     </row>
-    <row r="968" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="968" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B968" s="2">
         <v>18</v>
       </c>
@@ -31480,7 +31467,7 @@
         <v>377.79399999999998</v>
       </c>
     </row>
-    <row r="969" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="969" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B969" s="2">
         <v>18</v>
       </c>
@@ -31509,7 +31496,7 @@
         <v>377.88299999999998</v>
       </c>
     </row>
-    <row r="970" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="970" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B970" s="2">
         <v>17.5</v>
       </c>
@@ -31538,7 +31525,7 @@
         <v>342.221</v>
       </c>
     </row>
-    <row r="971" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B971" s="2">
         <v>15</v>
       </c>
@@ -31567,7 +31554,7 @@
         <v>368.815</v>
       </c>
     </row>
-    <row r="972" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="972" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B972" s="2">
         <v>15</v>
       </c>
@@ -31596,7 +31583,7 @@
         <v>368.79599999999999</v>
       </c>
     </row>
-    <row r="973" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B973" s="2">
         <v>15</v>
       </c>
@@ -31625,7 +31612,7 @@
         <v>354.39699999999999</v>
       </c>
     </row>
-    <row r="974" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="974" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B974" s="2">
         <v>15</v>
       </c>
@@ -31654,7 +31641,7 @@
         <v>350.94600000000003</v>
       </c>
     </row>
-    <row r="975" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="975" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B975" s="2">
         <v>15</v>
       </c>
@@ -31683,7 +31670,7 @@
         <v>356.858</v>
       </c>
     </row>
-    <row r="976" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="976" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B976" s="2">
         <v>15</v>
       </c>
@@ -31712,7 +31699,7 @@
         <v>366.45699999999999</v>
       </c>
     </row>
-    <row r="977" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="977" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B977" s="2">
         <v>15</v>
       </c>
@@ -31741,7 +31728,7 @@
         <v>362.93400000000003</v>
       </c>
     </row>
-    <row r="978" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="978" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B978" s="2">
         <v>15</v>
       </c>
@@ -31770,7 +31757,7 @@
         <v>342.27699999999999</v>
       </c>
     </row>
-    <row r="979" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="979" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B979" s="2">
         <v>15</v>
       </c>
@@ -31799,7 +31786,7 @@
         <v>317.822</v>
       </c>
     </row>
-    <row r="980" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="980" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B980" s="2">
         <v>15</v>
       </c>
@@ -31828,7 +31815,7 @@
         <v>363.10700000000003</v>
       </c>
     </row>
-    <row r="981" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="981" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B981" s="2">
         <v>15</v>
       </c>
@@ -31857,7 +31844,7 @@
         <v>378.63600000000002</v>
       </c>
     </row>
-    <row r="982" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="982" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B982" s="2">
         <v>12.5</v>
       </c>
@@ -31886,7 +31873,7 @@
         <v>342.15699999999998</v>
       </c>
     </row>
-    <row r="983" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="983" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B983" s="2">
         <v>12.5</v>
       </c>
@@ -31915,7 +31902,7 @@
         <v>378.75700000000001</v>
       </c>
     </row>
-    <row r="984" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="984" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B984" s="2">
         <v>12</v>
       </c>
@@ -31944,7 +31931,7 @@
         <v>368.79</v>
       </c>
     </row>
-    <row r="985" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="985" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B985" s="2">
         <v>12</v>
       </c>
@@ -31973,7 +31960,7 @@
         <v>350.94499999999999</v>
       </c>
     </row>
-    <row r="986" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="986" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B986" s="2">
         <v>12</v>
       </c>
@@ -32002,7 +31989,7 @@
         <v>364.53899999999999</v>
       </c>
     </row>
-    <row r="987" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="987" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B987" s="2">
         <v>12</v>
       </c>
@@ -32031,7 +32018,7 @@
         <v>364.53899999999999</v>
       </c>
     </row>
-    <row r="988" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="988" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B988" s="2">
         <v>12</v>
       </c>
@@ -32060,7 +32047,7 @@
         <v>363.61799999999999</v>
       </c>
     </row>
-    <row r="989" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="989" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B989" s="2">
         <v>10</v>
       </c>
@@ -32089,7 +32076,7 @@
         <v>354.52499999999998</v>
       </c>
     </row>
-    <row r="990" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="990" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B990" s="2">
         <v>10</v>
       </c>
@@ -32118,7 +32105,7 @@
         <v>366.58499999999998</v>
       </c>
     </row>
-    <row r="991" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="991" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B991" s="2">
         <v>10</v>
       </c>
@@ -32147,7 +32134,7 @@
         <v>318.02699999999999</v>
       </c>
     </row>
-    <row r="992" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="992" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B992" s="2">
         <v>9</v>
       </c>
@@ -32176,7 +32163,7 @@
         <v>366.10300000000001</v>
       </c>
     </row>
-    <row r="993" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="993" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B993" s="2">
         <v>9</v>
       </c>
@@ -32205,7 +32192,7 @@
         <v>365.548</v>
       </c>
     </row>
-    <row r="994" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="994" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B994" s="2">
         <v>9</v>
       </c>
@@ -32234,7 +32221,7 @@
         <v>317.88299999999998</v>
       </c>
     </row>
-    <row r="995" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="995" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B995" s="2">
         <v>9</v>
       </c>
@@ -32263,7 +32250,7 @@
         <v>377.92399999999998</v>
       </c>
     </row>
-    <row r="996" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="996" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B996" s="2">
         <v>9</v>
       </c>
@@ -32292,7 +32279,7 @@
         <v>376.86900000000003</v>
       </c>
     </row>
-    <row r="997" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="997" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B997" s="2">
         <v>9</v>
       </c>
@@ -32321,7 +32308,7 @@
         <v>364.06799999999998</v>
       </c>
     </row>
-    <row r="998" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="998" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B998" s="2">
         <v>7.5</v>
       </c>
@@ -32350,7 +32337,7 @@
         <v>356.00299999999999</v>
       </c>
     </row>
-    <row r="999" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B999" s="2">
         <v>6</v>
       </c>
@@ -32379,7 +32366,7 @@
         <v>355.13499999999999</v>
       </c>
     </row>
-    <row r="1000" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1000" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1000" s="2">
         <v>6</v>
       </c>
@@ -32408,7 +32395,7 @@
         <v>363.61599999999999</v>
       </c>
     </row>
-    <row r="1001" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1001" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1001" s="2">
         <v>3</v>
       </c>
@@ -32437,7 +32424,7 @@
         <v>365.54599999999999</v>
       </c>
     </row>
-    <row r="1002" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1002" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1002" s="2">
         <v>3</v>
       </c>
@@ -32470,7 +32457,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N2:U5 N6:U6" calculatedColumn="1"/>
+    <ignoredError sqref="N2:U3 R5:U5 N5:P5 S6:T6 N4:U4 N6:R6 U6 Q5" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="2">
